--- a/oanda_all_bases_currencies.xlsx
+++ b/oanda_all_bases_currencies.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Последнее обновление: 18.12.2025 05:19:45</t>
+          <t>Последнее обновление: 18.12.2025 05:37:45</t>
         </is>
       </c>
     </row>
@@ -7261,7 +7261,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Последнее обновление: 18.12.2025 05:20:08</t>
+          <t>Последнее обновление: 18.12.2025 05:38:09</t>
         </is>
       </c>
     </row>
@@ -14034,7 +14034,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Последнее обновление: 18.12.2025 05:20:31</t>
+          <t>Последнее обновление: 18.12.2025 05:38:31</t>
         </is>
       </c>
     </row>
@@ -20807,7 +20807,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Последнее обновление: 18.12.2025 05:21:16</t>
+          <t>Последнее обновление: 18.12.2025 05:39:17</t>
         </is>
       </c>
     </row>
@@ -27581,7 +27581,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Последнее обновление: 18.12.2025 05:20:54</t>
+          <t>Последнее обновление: 18.12.2025 05:38:53</t>
         </is>
       </c>
     </row>

--- a/oanda_all_bases_currencies.xlsx
+++ b/oanda_all_bases_currencies.xlsx
@@ -488,14 +488,14 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Последнее обновление: 18.12.2025 05:37:45</t>
+          <t>Последнее обновление: 18.12.2025 08:10:45</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Валютные пары: USD/EUR, USD/AED, USD/CHF, USD/GBP, USD/JPY, USD/INR, USD/RUB, USD/KZT, USD/HKD, USD/USD</t>
+          <t>Валютные пары: USD/EUR, USD/AED, USD/CHF, USD/GBP, USD/CNY, USD/INR, USD/RUB, USD/KZT, USD/HKD, USD/USD</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>USD/JPY</t>
+          <t>USD/CNY</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0.7432839999999999</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>146.061</v>
+        <v>7.18316</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>86.5008</v>
@@ -612,7 +612,7 @@
         <v>0.7434770000000001</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>146.106</v>
+        <v>7.18315</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>86.4975</v>
@@ -649,7 +649,7 @@
         <v>0.743138</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>146.77</v>
+        <v>7.18351</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>86.62479999999999</v>
@@ -686,7 +686,7 @@
         <v>0.735364</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>145.058</v>
+        <v>7.17513</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>86.0386</v>
@@ -723,7 +723,7 @@
         <v>0.733604</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>145.292</v>
+        <v>7.17259</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>85.98950000000001</v>
@@ -760,7 +760,7 @@
         <v>0.728525</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>144.401</v>
+        <v>7.17095</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>85.7291</v>
@@ -797,7 +797,7 @@
         <v>0.7285199999999999</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>144.56</v>
+        <v>7.16954</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>85.5009</v>
@@ -834,7 +834,7 @@
         <v>0.728661</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>144.64</v>
+        <v>7.17205</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>85.4034</v>
@@ -871,7 +871,7 @@
         <v>0.728667</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>144.619</v>
+        <v>7.17202</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>85.4121</v>
@@ -908,7 +908,7 @@
         <v>0.729116</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>144.165</v>
+        <v>7.16678</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>85.6245</v>
@@ -945,7 +945,7 @@
         <v>0.727573</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>143.438</v>
+        <v>7.16349</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>85.5866</v>
@@ -982,7 +982,7 @@
         <v>0.731079</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>143.74</v>
+        <v>7.16522</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>85.63209999999999</v>
@@ -1019,7 +1019,7 @@
         <v>0.73267</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>144.336</v>
+        <v>7.16506</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>85.4354</v>
@@ -1056,7 +1056,7 @@
         <v>0.73225</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>144.452</v>
+        <v>7.16467</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>85.3771</v>
@@ -1093,7 +1093,7 @@
         <v>0.732198</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>144.441</v>
+        <v>7.16473</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>84.9778</v>
@@ -1130,7 +1130,7 @@
         <v>0.732202</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>144.446</v>
+        <v>7.16471</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>84.9847</v>
@@ -1167,7 +1167,7 @@
         <v>0.73433</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>145.447</v>
+        <v>7.17074</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>85.7872</v>
@@ -1204,7 +1204,7 @@
         <v>0.735232</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>146.419</v>
+        <v>7.1739</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>85.7266</v>
@@ -1241,7 +1241,7 @@
         <v>0.73585</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>146.605</v>
+        <v>7.1777</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>85.72790000000001</v>
@@ -1278,7 +1278,7 @@
         <v>0.735863</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>146.248</v>
+        <v>7.17757</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>85.67910000000001</v>
@@ -1315,7 +1315,7 @@
         <v>0.739314</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>147.091</v>
+        <v>7.17096</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>85.81</v>
@@ -1352,7 +1352,7 @@
         <v>0.741076</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>147.407</v>
+        <v>7.1681</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>85.8242</v>
@@ -1389,7 +1389,7 @@
         <v>0.741093</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>147.392</v>
+        <v>7.1681</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>85.8241</v>
@@ -1426,7 +1426,7 @@
         <v>0.742768</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>147.437</v>
+        <v>7.1679</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>85.8943</v>
@@ -1463,7 +1463,7 @@
         <v>0.745213</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>148.213</v>
+        <v>7.17076</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>85.90260000000001</v>
@@ -1500,7 +1500,7 @@
         <v>0.745983</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>148.444</v>
+        <v>7.17607</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>85.9118</v>
@@ -1537,7 +1537,7 @@
         <v>0.746009</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>148.554</v>
+        <v>7.17977</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>85.9926</v>
@@ -1574,7 +1574,7 @@
         <v>0.744492</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>148.623</v>
+        <v>7.17955</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>86.12269999999999</v>
@@ -1611,7 +1611,7 @@
         <v>0.745556</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>148.812</v>
+        <v>7.17755</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>86.1476</v>
@@ -1648,7 +1648,7 @@
         <v>0.745512</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>148.758</v>
+        <v>7.17762</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>86.1478</v>
@@ -1685,7 +1685,7 @@
         <v>0.74287</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>147.755</v>
+        <v>7.17507</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>86.23399999999999</v>
@@ -1722,7 +1722,7 @@
         <v>0.740819</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>147.102</v>
+        <v>7.17358</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>86.3207</v>
@@ -1759,7 +1759,7 @@
         <v>0.738</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>146.581</v>
+        <v>7.16511</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>86.3734</v>
@@ -1796,7 +1796,7 @@
         <v>0.738267</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>146.554</v>
+        <v>7.15631</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>86.38379999999999</v>
@@ -1833,7 +1833,7 @@
         <v>0.743</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>147.54</v>
+        <v>7.15994</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>86.50409999999999</v>
@@ -1870,7 +1870,7 @@
         <v>0.744153</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>147.654</v>
+        <v>7.16187</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>86.5078</v>
@@ -1907,7 +1907,7 @@
         <v>0.74415</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>147.664</v>
+        <v>7.16182</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>86.5077</v>
@@ -1944,7 +1944,7 @@
         <v>0.745958</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>148.203</v>
+        <v>7.16803</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>86.6309</v>
@@ -1981,7 +1981,7 @@
         <v>0.749316</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>148.487</v>
+        <v>7.17709</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>86.9165</v>
@@ -2018,7 +2018,7 @@
         <v>0.750829</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>148.583</v>
+        <v>7.18054</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>87.4303</v>
@@ -2055,7 +2055,7 @@
         <v>0.755625</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>149.925</v>
+        <v>7.18933</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>87.5702</v>
@@ -2092,7 +2092,7 @@
         <v>0.756148</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>149.239</v>
+        <v>7.20171</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>87.3419</v>
@@ -2129,7 +2129,7 @@
         <v>0.753012</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>147.37</v>
+        <v>7.20198</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>87.18210000000001</v>
@@ -2166,7 +2166,7 @@
         <v>0.752981</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>147.353</v>
+        <v>7.20248</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>87.184</v>
@@ -2203,7 +2203,7 @@
         <v>0.752622</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>147.381</v>
+        <v>7.18793</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>87.6223</v>
@@ -2240,7 +2240,7 @@
         <v>0.752412</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>147.419</v>
+        <v>7.18173</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>87.8113</v>
@@ -2277,7 +2277,7 @@
         <v>0.750377</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>147.428</v>
+        <v>7.18427</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>87.7199</v>
@@ -2314,7 +2314,7 @@
         <v>0.7463109999999999</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>147.265</v>
+        <v>7.18089</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>87.5639</v>
@@ -2351,7 +2351,7 @@
         <v>0.743828</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>147.546</v>
+        <v>7.18141</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>87.5872</v>
@@ -2388,7 +2388,7 @@
         <v>0.7431410000000001</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>147.718</v>
+        <v>7.18038</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>87.66419999999999</v>
@@ -2425,7 +2425,7 @@
         <v>0.7432</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>147.711</v>
+        <v>7.18039</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>87.64960000000001</v>
@@ -2462,7 +2462,7 @@
         <v>0.743956</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>147.81</v>
+        <v>7.18364</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>87.61879999999999</v>
@@ -2499,7 +2499,7 @@
         <v>0.742326</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>148.12</v>
+        <v>7.18468</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>87.6348</v>
@@ -2536,7 +2536,7 @@
         <v>0.7379250000000001</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>147.51</v>
+        <v>7.17645</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>87.51220000000001</v>
@@ -2573,7 +2573,7 @@
         <v>0.737479</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>147.076</v>
+        <v>7.17419</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>87.57429999999999</v>
@@ -2610,7 +2610,7 @@
         <v>0.737776</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>147.115</v>
+        <v>7.18002</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>87.5373</v>
@@ -2647,7 +2647,7 @@
         <v>0.737561</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>147.134</v>
+        <v>7.18135</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>87.50839999999999</v>
@@ -2684,7 +2684,7 @@
         <v>0.7375389999999999</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>147.142</v>
+        <v>7.18136</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>87.5095</v>
@@ -2721,7 +2721,7 @@
         <v>0.738829</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>147.604</v>
+        <v>7.18144</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>87.37</v>
@@ -2758,7 +2758,7 @@
         <v>0.74056</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>147.679</v>
+        <v>7.1826</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>87.1097</v>
@@ -2795,7 +2795,7 @@
         <v>0.742077</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>147.38</v>
+        <v>7.17798</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>87.0492</v>
@@ -2832,7 +2832,7 @@
         <v>0.74394</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>147.859</v>
+        <v>7.17701</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>87.1733</v>
@@ -2869,7 +2869,7 @@
         <v>0.742915</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>147.859</v>
+        <v>7.17505</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>87.37649999999999</v>
@@ -2906,7 +2906,7 @@
         <v>0.738863</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>146.899</v>
+        <v>7.16654</v>
       </c>
       <c r="G69" s="5" t="n">
         <v>87.346</v>
@@ -2943,7 +2943,7 @@
         <v>0.738958</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>146.911</v>
+        <v>7.16654</v>
       </c>
       <c r="G70" s="5" t="n">
         <v>87.3449</v>
@@ -2980,7 +2980,7 @@
         <v>0.741167</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>147.469</v>
+        <v>7.15828</v>
       </c>
       <c r="G71" s="5" t="n">
         <v>87.5095</v>
@@ -3017,7 +3017,7 @@
         <v>0.742158</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>147.493</v>
+        <v>7.15303</v>
       </c>
       <c r="G72" s="5" t="n">
         <v>87.6519</v>
@@ -3054,7 +3054,7 @@
         <v>0.742502</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>147.7</v>
+        <v>7.15377</v>
       </c>
       <c r="G73" s="5" t="n">
         <v>87.7109</v>
@@ -3091,7 +3091,7 @@
         <v>0.740163</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>147.058</v>
+        <v>7.14429</v>
       </c>
       <c r="G74" s="5" t="n">
         <v>87.5992</v>
@@ -3128,7 +3128,7 @@
         <v>0.741059</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>147.014</v>
+        <v>7.13737</v>
       </c>
       <c r="G75" s="5" t="n">
         <v>88.0252</v>
@@ -3165,7 +3165,7 @@
         <v>0.740105</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>147.027</v>
+        <v>7.13034</v>
       </c>
       <c r="G76" s="5" t="n">
         <v>88.145</v>
@@ -3202,7 +3202,7 @@
         <v>0.740135</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>147.031</v>
+        <v>7.13033</v>
       </c>
       <c r="G77" s="5" t="n">
         <v>88.1494</v>
@@ -3239,7 +3239,7 @@
         <v>0.738865</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>147.125</v>
+        <v>7.13254</v>
       </c>
       <c r="G78" s="5" t="n">
         <v>88.1114</v>
@@ -3276,7 +3276,7 @@
         <v>0.744409</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>148.195</v>
+        <v>7.13756</v>
       </c>
       <c r="G79" s="5" t="n">
         <v>88.0552</v>
@@ -3313,7 +3313,7 @@
         <v>0.745678</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>148.42</v>
+        <v>7.14143</v>
       </c>
       <c r="G80" s="5" t="n">
         <v>88.0592</v>
@@ -3350,7 +3350,7 @@
         <v>0.744325</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>148.36</v>
+        <v>7.14106</v>
       </c>
       <c r="G81" s="5" t="n">
         <v>88.1452</v>
@@ -3387,7 +3387,7 @@
         <v>0.741307</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>147.737</v>
+        <v>7.13701</v>
       </c>
       <c r="G82" s="5" t="n">
         <v>88.1777</v>
@@ -3424,7 +3424,7 @@
         <v>0.73999</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>147.382</v>
+        <v>7.13248</v>
       </c>
       <c r="G83" s="5" t="n">
         <v>88.18640000000001</v>
@@ -3461,7 +3461,7 @@
         <v>0.740106</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>147.485</v>
+        <v>7.13267</v>
       </c>
       <c r="G84" s="5" t="n">
         <v>88.1857</v>
@@ -3498,7 +3498,7 @@
         <v>0.739305</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>147.771</v>
+        <v>7.13102</v>
       </c>
       <c r="G85" s="5" t="n">
         <v>88.0243</v>
@@ -3535,7 +3535,7 @@
         <v>0.73788</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>147.113</v>
+        <v>7.12491</v>
       </c>
       <c r="G86" s="5" t="n">
         <v>88.13930000000001</v>
@@ -3572,7 +3572,7 @@
         <v>0.7387550000000001</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>147.39</v>
+        <v>7.12125</v>
       </c>
       <c r="G87" s="5" t="n">
         <v>88.0996</v>
@@ -3609,7 +3609,7 @@
         <v>0.73827</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>147.432</v>
+        <v>7.1201</v>
       </c>
       <c r="G88" s="5" t="n">
         <v>88.2765</v>
@@ -3646,7 +3646,7 @@
         <v>0.737591</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>147.606</v>
+        <v>7.12118</v>
       </c>
       <c r="G89" s="5" t="n">
         <v>88.2889</v>
@@ -3683,7 +3683,7 @@
         <v>0.737202</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>147.65</v>
+        <v>7.12372</v>
       </c>
       <c r="G90" s="5" t="n">
         <v>88.27630000000001</v>
@@ -3720,7 +3720,7 @@
         <v>0.737232</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>147.651</v>
+        <v>7.12372</v>
       </c>
       <c r="G91" s="5" t="n">
         <v>88.273</v>
@@ -3757,7 +3757,7 @@
         <v>0.735843</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>147.4</v>
+        <v>7.12117</v>
       </c>
       <c r="G92" s="5" t="n">
         <v>88.178</v>
@@ -3794,7 +3794,7 @@
         <v>0.73322</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>146.801</v>
+        <v>7.11627</v>
       </c>
       <c r="G93" s="5" t="n">
         <v>88.01560000000001</v>
@@ -3831,7 +3831,7 @@
         <v>0.732698</v>
       </c>
       <c r="F94" s="5" t="n">
-        <v>146.486</v>
+        <v>7.10835</v>
       </c>
       <c r="G94" s="5" t="n">
         <v>87.81489999999999</v>
@@ -3868,7 +3868,7 @@
         <v>0.735692</v>
       </c>
       <c r="F95" s="5" t="n">
-        <v>147.541</v>
+        <v>7.10742</v>
       </c>
       <c r="G95" s="5" t="n">
         <v>88.1016</v>
@@ -3905,7 +3905,7 @@
         <v>0.740704</v>
       </c>
       <c r="F96" s="5" t="n">
-        <v>147.884</v>
+        <v>7.11347</v>
       </c>
       <c r="G96" s="5" t="n">
         <v>88.1478</v>
@@ -3942,7 +3942,7 @@
         <v>0.742115</v>
       </c>
       <c r="F97" s="5" t="n">
-        <v>147.951</v>
+        <v>7.11387</v>
       </c>
       <c r="G97" s="5" t="n">
         <v>88.09820000000001</v>
@@ -3979,7 +3979,7 @@
         <v>0.742129</v>
       </c>
       <c r="F98" s="5" t="n">
-        <v>147.951</v>
+        <v>7.11394</v>
       </c>
       <c r="G98" s="5" t="n">
         <v>88.098</v>
@@ -4016,7 +4016,7 @@
         <v>0.741028</v>
       </c>
       <c r="F99" s="5" t="n">
-        <v>147.932</v>
+        <v>7.11327</v>
       </c>
       <c r="G99" s="5" t="n">
         <v>88.2465</v>
@@ -4053,7 +4053,7 @@
         <v>0.739797</v>
       </c>
       <c r="F100" s="5" t="n">
-        <v>147.693</v>
+        <v>7.11267</v>
       </c>
       <c r="G100" s="5" t="n">
         <v>88.67659999999999</v>
@@ -4090,7 +4090,7 @@
         <v>0.742212</v>
       </c>
       <c r="F101" s="5" t="n">
-        <v>148.381</v>
+        <v>7.12101</v>
       </c>
       <c r="G101" s="5" t="n">
         <v>88.7452</v>
@@ -4127,7 +4127,7 @@
         <v>0.746084</v>
       </c>
       <c r="F102" s="5" t="n">
-        <v>149.192</v>
+        <v>7.13001</v>
       </c>
       <c r="G102" s="5" t="n">
         <v>88.7149</v>
@@ -4164,7 +4164,7 @@
         <v>0.747584</v>
       </c>
       <c r="F103" s="5" t="n">
-        <v>149.648</v>
+        <v>7.13364</v>
       </c>
       <c r="G103" s="5" t="n">
         <v>88.6909</v>
@@ -4201,7 +4201,7 @@
         <v>0.7458900000000001</v>
       </c>
       <c r="F104" s="5" t="n">
-        <v>149.5</v>
+        <v>7.13372</v>
       </c>
       <c r="G104" s="5" t="n">
         <v>88.65949999999999</v>
@@ -4238,7 +4238,7 @@
         <v>0.745888</v>
       </c>
       <c r="F105" s="5" t="n">
-        <v>149.492</v>
+        <v>7.13369</v>
       </c>
       <c r="G105" s="5" t="n">
         <v>88.6561</v>
@@ -4275,7 +4275,7 @@
         <v>0.744358</v>
       </c>
       <c r="F106" s="5" t="n">
-        <v>148.714</v>
+        <v>7.12449</v>
       </c>
       <c r="G106" s="5" t="n">
         <v>88.70829999999999</v>
@@ -4312,7 +4312,7 @@
         <v>0.743885</v>
       </c>
       <c r="F107" s="5" t="n">
-        <v>148.077</v>
+        <v>7.11981</v>
       </c>
       <c r="G107" s="5" t="n">
         <v>88.7963</v>
@@ -4349,7 +4349,7 @@
         <v>0.742216</v>
       </c>
       <c r="F108" s="5" t="n">
-        <v>147.268</v>
+        <v>7.11933</v>
       </c>
       <c r="G108" s="5" t="n">
         <v>88.7017</v>
@@ -4386,7 +4386,7 @@
         <v>0.742747</v>
       </c>
       <c r="F109" s="5" t="n">
-        <v>147.096</v>
+        <v>7.11916</v>
       </c>
       <c r="G109" s="5" t="n">
         <v>88.7261</v>
@@ -4423,7 +4423,7 @@
         <v>0.742926</v>
       </c>
       <c r="F110" s="5" t="n">
-        <v>147.464</v>
+        <v>7.11913</v>
       </c>
       <c r="G110" s="5" t="n">
         <v>88.7483</v>
@@ -4460,7 +4460,7 @@
         <v>0.741609</v>
       </c>
       <c r="F111" s="5" t="n">
-        <v>147.478</v>
+        <v>7.119</v>
       </c>
       <c r="G111" s="5" t="n">
         <v>88.7362</v>
@@ -4497,7 +4497,7 @@
         <v>0.741904</v>
       </c>
       <c r="F112" s="5" t="n">
-        <v>147.702</v>
+        <v>7.119</v>
       </c>
       <c r="G112" s="5" t="n">
         <v>88.7287</v>
@@ -4534,7 +4534,7 @@
         <v>0.743047</v>
       </c>
       <c r="F113" s="5" t="n">
-        <v>150.126</v>
+        <v>7.1193</v>
       </c>
       <c r="G113" s="5" t="n">
         <v>88.744</v>
@@ -4571,7 +4571,7 @@
         <v>0.743889</v>
       </c>
       <c r="F114" s="5" t="n">
-        <v>151.028</v>
+        <v>7.11923</v>
       </c>
       <c r="G114" s="5" t="n">
         <v>88.7376</v>
@@ -4608,7 +4608,7 @@
         <v>0.746038</v>
       </c>
       <c r="F115" s="5" t="n">
-        <v>152.587</v>
+        <v>7.11928</v>
       </c>
       <c r="G115" s="5" t="n">
         <v>88.7664</v>
@@ -4645,7 +4645,7 @@
         <v>0.748803</v>
       </c>
       <c r="F116" s="5" t="n">
-        <v>152.844</v>
+        <v>7.12329</v>
       </c>
       <c r="G116" s="5" t="n">
         <v>88.8087</v>
@@ -4682,7 +4682,7 @@
         <v>0.750851</v>
       </c>
       <c r="F117" s="5" t="n">
-        <v>152.316</v>
+        <v>7.12294</v>
       </c>
       <c r="G117" s="5" t="n">
         <v>88.71339999999999</v>
@@ -4719,7 +4719,7 @@
         <v>0.748178</v>
       </c>
       <c r="F118" s="5" t="n">
-        <v>151.158</v>
+        <v>7.11707</v>
       </c>
       <c r="G118" s="5" t="n">
         <v>88.75709999999999</v>
@@ -4756,7 +4756,7 @@
         <v>0.748315</v>
       </c>
       <c r="F119" s="5" t="n">
-        <v>151.252</v>
+        <v>7.11736</v>
       </c>
       <c r="G119" s="5" t="n">
         <v>88.7504</v>
@@ -4793,7 +4793,7 @@
         <v>0.749614</v>
       </c>
       <c r="F120" s="5" t="n">
-        <v>152.141</v>
+        <v>7.11749</v>
       </c>
       <c r="G120" s="5" t="n">
         <v>88.6827</v>
@@ -4830,7 +4830,7 @@
         <v>0.7513300000000001</v>
       </c>
       <c r="F121" s="5" t="n">
-        <v>151.959</v>
+        <v>7.12858</v>
       </c>
       <c r="G121" s="5" t="n">
         <v>88.76430000000001</v>
@@ -4867,7 +4867,7 @@
         <v>0.7481449999999999</v>
       </c>
       <c r="F122" s="5" t="n">
-        <v>151.261</v>
+        <v>7.13076</v>
       </c>
       <c r="G122" s="5" t="n">
         <v>88.15479999999999</v>
@@ -4904,7 +4904,7 @@
         <v>0.744543</v>
       </c>
       <c r="F123" s="5" t="n">
-        <v>150.784</v>
+        <v>7.12465</v>
       </c>
       <c r="G123" s="5" t="n">
         <v>87.8944</v>
@@ -4941,7 +4941,7 @@
         <v>0.7443959999999999</v>
       </c>
       <c r="F124" s="5" t="n">
-        <v>150.213</v>
+        <v>7.12439</v>
       </c>
       <c r="G124" s="5" t="n">
         <v>87.961</v>
@@ -4978,7 +4978,7 @@
         <v>0.744435</v>
       </c>
       <c r="F125" s="5" t="n">
-        <v>150.62</v>
+        <v>7.12644</v>
       </c>
       <c r="G125" s="5" t="n">
         <v>87.9936</v>
@@ -5015,7 +5015,7 @@
         <v>0.744453</v>
       </c>
       <c r="F126" s="5" t="n">
-        <v>150.63</v>
+        <v>7.1264</v>
       </c>
       <c r="G126" s="5" t="n">
         <v>87.98990000000001</v>
@@ -5052,7 +5052,7 @@
         <v>0.745107</v>
       </c>
       <c r="F127" s="5" t="n">
-        <v>150.713</v>
+        <v>7.12272</v>
       </c>
       <c r="G127" s="5" t="n">
         <v>87.8984</v>
@@ -5089,7 +5089,7 @@
         <v>0.74721</v>
       </c>
       <c r="F128" s="5" t="n">
-        <v>151.576</v>
+        <v>7.11999</v>
       </c>
       <c r="G128" s="5" t="n">
         <v>87.9811</v>
@@ -5126,7 +5126,7 @@
         <v>0.748893</v>
       </c>
       <c r="F129" s="5" t="n">
-        <v>151.799</v>
+        <v>7.12361</v>
       </c>
       <c r="G129" s="5" t="n">
         <v>87.7458</v>
@@ -5163,7 +5163,7 @@
         <v>0.749851</v>
       </c>
       <c r="F130" s="5" t="n">
-        <v>152.54</v>
+        <v>7.12418</v>
       </c>
       <c r="G130" s="5" t="n">
         <v>87.8289</v>
@@ -5200,7 +5200,7 @@
         <v>0.750858</v>
       </c>
       <c r="F131" s="5" t="n">
-        <v>152.84</v>
+        <v>7.12308</v>
       </c>
       <c r="G131" s="5" t="n">
         <v>87.7872</v>
@@ -5237,7 +5237,7 @@
         <v>0.750926</v>
       </c>
       <c r="F132" s="5" t="n">
-        <v>152.86</v>
+        <v>7.1209</v>
       </c>
       <c r="G132" s="5" t="n">
         <v>87.8019</v>
@@ -5274,7 +5274,7 @@
         <v>0.750873</v>
       </c>
       <c r="F133" s="5" t="n">
-        <v>152.878</v>
+        <v>7.1209</v>
       </c>
       <c r="G133" s="5" t="n">
         <v>87.8051</v>
@@ -5311,7 +5311,7 @@
         <v>0.750062</v>
       </c>
       <c r="F134" s="5" t="n">
-        <v>152.919</v>
+        <v>7.1127</v>
       </c>
       <c r="G134" s="5" t="n">
         <v>88.1198</v>
@@ -5348,7 +5348,7 @@
         <v>0.751296</v>
       </c>
       <c r="F135" s="5" t="n">
-        <v>152.121</v>
+        <v>7.10159</v>
       </c>
       <c r="G135" s="5" t="n">
         <v>88.2526</v>
@@ -5385,7 +5385,7 @@
         <v>0.756182</v>
       </c>
       <c r="F136" s="5" t="n">
-        <v>152.255</v>
+        <v>7.09703</v>
       </c>
       <c r="G136" s="5" t="n">
         <v>88.22450000000001</v>
@@ -5422,7 +5422,7 @@
         <v>0.758893</v>
       </c>
       <c r="F137" s="5" t="n">
-        <v>153.641</v>
+        <v>7.10349</v>
       </c>
       <c r="G137" s="5" t="n">
         <v>88.56959999999999</v>
@@ -5459,7 +5459,7 @@
         <v>0.760927</v>
       </c>
       <c r="F138" s="5" t="n">
-        <v>154.037</v>
+        <v>7.11082</v>
       </c>
       <c r="G138" s="5" t="n">
         <v>88.6901</v>
@@ -5496,7 +5496,7 @@
         <v>0.760167</v>
       </c>
       <c r="F139" s="5" t="n">
-        <v>153.969</v>
+        <v>7.10635</v>
       </c>
       <c r="G139" s="5" t="n">
         <v>88.5228</v>
@@ -5533,7 +5533,7 @@
         <v>0.760246</v>
       </c>
       <c r="F140" s="5" t="n">
-        <v>153.98</v>
+        <v>7.10671</v>
       </c>
       <c r="G140" s="5" t="n">
         <v>88.5428</v>
@@ -5570,7 +5570,7 @@
         <v>0.761162</v>
       </c>
       <c r="F141" s="5" t="n">
-        <v>154.146</v>
+        <v>7.12145</v>
       </c>
       <c r="G141" s="5" t="n">
         <v>88.7465</v>
@@ -5607,7 +5607,7 @@
         <v>0.764893</v>
       </c>
       <c r="F142" s="5" t="n">
-        <v>153.694</v>
+        <v>7.12182</v>
       </c>
       <c r="G142" s="5" t="n">
         <v>88.6798</v>
@@ -5644,7 +5644,7 @@
         <v>0.767142</v>
       </c>
       <c r="F143" s="5" t="n">
-        <v>153.761</v>
+        <v>7.12643</v>
       </c>
       <c r="G143" s="5" t="n">
         <v>88.6452</v>
@@ -5681,7 +5681,7 @@
         <v>0.763744</v>
       </c>
       <c r="F144" s="5" t="n">
-        <v>153.507</v>
+        <v>7.12155</v>
       </c>
       <c r="G144" s="5" t="n">
         <v>88.62260000000001</v>
@@ -5718,7 +5718,7 @@
         <v>0.761186</v>
       </c>
       <c r="F145" s="5" t="n">
-        <v>153.254</v>
+        <v>7.11892</v>
       </c>
       <c r="G145" s="5" t="n">
         <v>88.667</v>
@@ -5755,7 +5755,7 @@
         <v>0.759486</v>
       </c>
       <c r="F146" s="5" t="n">
-        <v>153.4</v>
+        <v>7.11917</v>
       </c>
       <c r="G146" s="5" t="n">
         <v>88.6272</v>
@@ -5792,7 +5792,7 @@
         <v>0.759545</v>
       </c>
       <c r="F147" s="5" t="n">
-        <v>153.427</v>
+        <v>7.11917</v>
       </c>
       <c r="G147" s="5" t="n">
         <v>88.6249</v>
@@ -5829,7 +5829,7 @@
         <v>0.759529</v>
       </c>
       <c r="F148" s="5" t="n">
-        <v>154.009</v>
+        <v>7.11872</v>
       </c>
       <c r="G148" s="5" t="n">
         <v>88.6827</v>
@@ -5866,7 +5866,7 @@
         <v>0.7599089999999999</v>
       </c>
       <c r="F149" s="5" t="n">
-        <v>154.16</v>
+        <v>7.11586</v>
       </c>
       <c r="G149" s="5" t="n">
         <v>88.548</v>
@@ -5903,7 +5903,7 @@
         <v>0.761531</v>
       </c>
       <c r="F150" s="5" t="n">
-        <v>154.656</v>
+        <v>7.11422</v>
       </c>
       <c r="G150" s="5" t="n">
         <v>88.5945</v>
@@ -5940,7 +5940,7 @@
         <v>0.759898</v>
       </c>
       <c r="F151" s="5" t="n">
-        <v>154.614</v>
+        <v>7.10308</v>
       </c>
       <c r="G151" s="5" t="n">
         <v>88.71339999999999</v>
@@ -5977,7 +5977,7 @@
         <v>0.760091</v>
       </c>
       <c r="F152" s="5" t="n">
-        <v>154.491</v>
+        <v>7.10213</v>
       </c>
       <c r="G152" s="5" t="n">
         <v>88.7101</v>
@@ -6014,7 +6014,7 @@
         <v>0.75872</v>
       </c>
       <c r="F153" s="5" t="n">
-        <v>154.505</v>
+        <v>7.09902</v>
       </c>
       <c r="G153" s="5" t="n">
         <v>88.65860000000001</v>
@@ -6051,7 +6051,7 @@
         <v>0.758777</v>
       </c>
       <c r="F154" s="5" t="n">
-        <v>154.507</v>
+        <v>7.0986</v>
       </c>
       <c r="G154" s="5" t="n">
         <v>88.6525</v>
@@ -6088,7 +6088,7 @@
         <v>0.759721</v>
       </c>
       <c r="F155" s="5" t="n">
-        <v>154.896</v>
+        <v>7.10168</v>
       </c>
       <c r="G155" s="5" t="n">
         <v>88.6271</v>
@@ -6125,7 +6125,7 @@
         <v>0.760296</v>
       </c>
       <c r="F156" s="5" t="n">
-        <v>155.29</v>
+        <v>7.10643</v>
       </c>
       <c r="G156" s="5" t="n">
         <v>88.5771</v>
@@ -6162,7 +6162,7 @@
         <v>0.76289</v>
       </c>
       <c r="F157" s="5" t="n">
-        <v>156.133</v>
+        <v>7.10797</v>
       </c>
       <c r="G157" s="5" t="n">
         <v>88.5035</v>
@@ -6199,7 +6199,7 @@
         <v>0.765056</v>
       </c>
       <c r="F158" s="5" t="n">
-        <v>157.444</v>
+        <v>7.1088</v>
       </c>
       <c r="G158" s="5" t="n">
         <v>88.6674</v>
@@ -6236,7 +6236,7 @@
         <v>0.76407</v>
       </c>
       <c r="F159" s="5" t="n">
-        <v>156.813</v>
+        <v>7.10599</v>
       </c>
       <c r="G159" s="5" t="n">
         <v>89.2397</v>
@@ -6273,7 +6273,7 @@
         <v>0.763172</v>
       </c>
       <c r="F160" s="5" t="n">
-        <v>156.359</v>
+        <v>7.10434</v>
       </c>
       <c r="G160" s="5" t="n">
         <v>89.60850000000001</v>
@@ -6310,7 +6310,7 @@
         <v>0.7631790000000001</v>
       </c>
       <c r="F161" s="5" t="n">
-        <v>156.374</v>
+        <v>7.10415</v>
       </c>
       <c r="G161" s="5" t="n">
         <v>89.6009</v>
@@ -6347,7 +6347,7 @@
         <v>0.763305</v>
       </c>
       <c r="F162" s="5" t="n">
-        <v>156.788</v>
+        <v>7.10358</v>
       </c>
       <c r="G162" s="5" t="n">
         <v>89.212</v>
@@ -6384,7 +6384,7 @@
         <v>0.760796</v>
       </c>
       <c r="F163" s="5" t="n">
-        <v>156.344</v>
+        <v>7.09213</v>
       </c>
       <c r="G163" s="5" t="n">
         <v>89.15479999999999</v>
@@ -6421,7 +6421,7 @@
         <v>0.757509</v>
       </c>
       <c r="F164" s="5" t="n">
-        <v>156.318</v>
+        <v>7.07947</v>
       </c>
       <c r="G164" s="5" t="n">
         <v>89.20399999999999</v>
@@ -6458,7 +6458,7 @@
         <v>0.755197</v>
       </c>
       <c r="F165" s="5" t="n">
-        <v>156.217</v>
+        <v>7.07763</v>
       </c>
       <c r="G165" s="5" t="n">
         <v>89.301</v>
@@ -6495,7 +6495,7 @@
         <v>0.7558550000000001</v>
       </c>
       <c r="F166" s="5" t="n">
-        <v>156.23</v>
+        <v>7.07515</v>
       </c>
       <c r="G166" s="5" t="n">
         <v>89.40130000000001</v>
@@ -6532,7 +6532,7 @@
         <v>0.755395</v>
       </c>
       <c r="F167" s="5" t="n">
-        <v>156.159</v>
+        <v>7.0732</v>
       </c>
       <c r="G167" s="5" t="n">
         <v>89.3476</v>
@@ -6569,7 +6569,7 @@
         <v>0.755398</v>
       </c>
       <c r="F168" s="5" t="n">
-        <v>156.152</v>
+        <v>7.07328</v>
       </c>
       <c r="G168" s="5" t="n">
         <v>89.3412</v>
@@ -6606,7 +6606,7 @@
         <v>0.755867</v>
       </c>
       <c r="F169" s="5" t="n">
-        <v>155.37</v>
+        <v>7.07301</v>
       </c>
       <c r="G169" s="5" t="n">
         <v>89.54349999999999</v>
@@ -6643,7 +6643,7 @@
         <v>0.757113</v>
       </c>
       <c r="F170" s="5" t="n">
-        <v>155.845</v>
+        <v>7.0715</v>
       </c>
       <c r="G170" s="5" t="n">
         <v>89.8554</v>
@@ -6680,7 +6680,7 @@
         <v>0.752425</v>
       </c>
       <c r="F171" s="5" t="n">
-        <v>155.436</v>
+        <v>7.06667</v>
       </c>
       <c r="G171" s="5" t="n">
         <v>90.1259</v>
@@ -6717,7 +6717,7 @@
         <v>0.749458</v>
       </c>
       <c r="F172" s="5" t="n">
-        <v>155.025</v>
+        <v>7.06811</v>
       </c>
       <c r="G172" s="5" t="n">
         <v>89.9858</v>
@@ -6754,7 +6754,7 @@
         <v>0.749671</v>
       </c>
       <c r="F173" s="5" t="n">
-        <v>155.087</v>
+        <v>7.07067</v>
       </c>
       <c r="G173" s="5" t="n">
         <v>89.9271</v>
@@ -6791,7 +6791,7 @@
         <v>0.749754</v>
       </c>
       <c r="F174" s="5" t="n">
-        <v>155.29</v>
+        <v>7.0712</v>
       </c>
       <c r="G174" s="5" t="n">
         <v>89.898</v>
@@ -6828,7 +6828,7 @@
         <v>0.749786</v>
       </c>
       <c r="F175" s="5" t="n">
-        <v>155.286</v>
+        <v>7.07101</v>
       </c>
       <c r="G175" s="5" t="n">
         <v>89.8964</v>
@@ -6865,7 +6865,7 @@
         <v>0.750326</v>
       </c>
       <c r="F176" s="5" t="n">
-        <v>155.508</v>
+        <v>7.06999</v>
       </c>
       <c r="G176" s="5" t="n">
         <v>90.0852</v>
@@ -6902,7 +6902,7 @@
         <v>0.750748</v>
       </c>
       <c r="F177" s="5" t="n">
-        <v>156.371</v>
+        <v>7.06797</v>
       </c>
       <c r="G177" s="5" t="n">
         <v>89.9265</v>
@@ -6939,7 +6939,7 @@
         <v>0.750234</v>
       </c>
       <c r="F178" s="5" t="n">
-        <v>156.495</v>
+        <v>7.06351</v>
       </c>
       <c r="G178" s="5" t="n">
         <v>89.88930000000001</v>
@@ -6976,7 +6976,7 @@
         <v>0.746811</v>
       </c>
       <c r="F179" s="5" t="n">
-        <v>155.603</v>
+        <v>7.06088</v>
       </c>
       <c r="G179" s="5" t="n">
         <v>90.1927</v>
@@ -7013,7 +7013,7 @@
         <v>0.747451</v>
       </c>
       <c r="F180" s="5" t="n">
-        <v>155.8</v>
+        <v>7.05654</v>
       </c>
       <c r="G180" s="5" t="n">
         <v>90.4532</v>
@@ -7050,7 +7050,7 @@
         <v>0.7476080000000001</v>
       </c>
       <c r="F181" s="5" t="n">
-        <v>155.822</v>
+        <v>7.05504</v>
       </c>
       <c r="G181" s="5" t="n">
         <v>90.54049999999999</v>
@@ -7087,7 +7087,7 @@
         <v>0.747613</v>
       </c>
       <c r="F182" s="5" t="n">
-        <v>155.821</v>
+        <v>7.05495</v>
       </c>
       <c r="G182" s="5" t="n">
         <v>90.53489999999999</v>
@@ -7124,7 +7124,7 @@
         <v>0.747678</v>
       </c>
       <c r="F183" s="5" t="n">
-        <v>155.229</v>
+        <v>7.05037</v>
       </c>
       <c r="G183" s="5" t="n">
         <v>90.6758</v>
@@ -7161,7 +7161,7 @@
         <v>0.746043</v>
       </c>
       <c r="F184" s="5" t="n">
-        <v>154.789</v>
+        <v>7.04434</v>
       </c>
       <c r="G184" s="5" t="n">
         <v>90.9034</v>
@@ -7198,7 +7198,7 @@
         <v>0.747705</v>
       </c>
       <c r="F185" s="5" t="n">
-        <v>155.369</v>
+        <v>7.04357</v>
       </c>
       <c r="G185" s="5" t="n">
         <v>90.47199999999999</v>
@@ -7261,14 +7261,14 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Последнее обновление: 18.12.2025 05:38:09</t>
+          <t>Последнее обновление: 18.12.2025 08:11:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Валютные пары: EUR/EUR, EUR/AED, EUR/CHF, EUR/GBP, EUR/JPY, EUR/INR, EUR/RUB, EUR/KZT, EUR/HKD, EUR/USD</t>
+          <t>Валютные пары: EUR/EUR, EUR/AED, EUR/CHF, EUR/GBP, EUR/CNY, EUR/INR, EUR/RUB, EUR/KZT, EUR/HKD, EUR/USD</t>
         </is>
       </c>
     </row>
@@ -7300,7 +7300,7 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>EUR/JPY</t>
+          <t>EUR/CNY</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -7348,7 +7348,7 @@
         <v>0.85641</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>168.284</v>
+        <v>8.27557</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>99.6558</v>
@@ -7385,7 +7385,7 @@
         <v>0.856299</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>168.271</v>
+        <v>8.27239</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>99.6139</v>
@@ -7422,7 +7422,7 @@
         <v>0.856071</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>169.067</v>
+        <v>8.274609999999999</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>99.7822</v>
@@ -7459,7 +7459,7 @@
         <v>0.853582</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>168.372</v>
+        <v>8.32798</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>99.8627</v>
@@ -7496,7 +7496,7 @@
         <v>0.852816</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>168.898</v>
+        <v>8.337619999999999</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>99.95659999999999</v>
@@ -7533,7 +7533,7 @@
         <v>0.852567</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>168.982</v>
+        <v>8.391389999999999</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>100.319</v>
@@ -7570,7 +7570,7 @@
         <v>0.853112</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>169.276</v>
+        <v>8.394640000000001</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>100.111</v>
@@ -7607,7 +7607,7 @@
         <v>0.85404</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>169.499</v>
+        <v>8.401479999999999</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>100.043</v>
@@ -7644,7 +7644,7 @@
         <v>0.854123</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>169.492</v>
+        <v>8.40264</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>100.068</v>
@@ -7681,7 +7681,7 @@
         <v>0.856198</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>169.286</v>
+        <v>8.415229999999999</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>100.54</v>
@@ -7718,7 +7718,7 @@
         <v>0.85798</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>169.144</v>
+        <v>8.44692</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>100.921</v>
@@ -7755,7 +7755,7 @@
         <v>0.861723</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>169.42</v>
+        <v>8.445</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>100.927</v>
@@ -7792,7 +7792,7 @@
         <v>0.862838</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>169.974</v>
+        <v>8.437530000000001</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>100.608</v>
@@ -7829,7 +7829,7 @@
         <v>0.862215</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>170.095</v>
+        <v>8.43543</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>100.52</v>
@@ -7866,7 +7866,7 @@
         <v>0.8622300000000001</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>170.148</v>
+        <v>8.43418</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>100.034</v>
@@ -7903,7 +7903,7 @@
         <v>0.8622610000000001</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>170.154</v>
+        <v>8.43477</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>100.05</v>
@@ -7940,7 +7940,7 @@
         <v>0.862009</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>170.733</v>
+        <v>8.41704</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>100.697</v>
@@ -7977,7 +7977,7 @@
         <v>0.862388</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>171.735</v>
+        <v>8.41394</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>100.545</v>
@@ -8014,7 +8014,7 @@
         <v>0.861975</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>171.73</v>
+        <v>8.40748</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>100.416</v>
@@ -8051,7 +8051,7 @@
         <v>0.862033</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>171.32</v>
+        <v>8.4077</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>100.363</v>
@@ -8088,7 +8088,7 @@
         <v>0.864019</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>171.899</v>
+        <v>8.37998</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>100.277</v>
@@ -8125,7 +8125,7 @@
         <v>0.86632</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>172.326</v>
+        <v>8.379149999999999</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>100.324</v>
@@ -8162,7 +8162,7 @@
         <v>0.866166</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>172.272</v>
+        <v>8.37744</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>100.304</v>
@@ -8199,7 +8199,7 @@
         <v>0.867322</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>172.157</v>
+        <v>8.36931</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>100.291</v>
@@ -8236,7 +8236,7 @@
         <v>0.867922</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>172.614</v>
+        <v>8.35108</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>100.042</v>
@@ -8273,7 +8273,7 @@
         <v>0.86692</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>172.507</v>
+        <v>8.33892</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>99.8335</v>
@@ -8310,7 +8310,7 @@
         <v>0.865376</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>172.331</v>
+        <v>8.32802</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>99.7453</v>
@@ -8347,7 +8347,7 @@
         <v>0.865964</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>172.877</v>
+        <v>8.350210000000001</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>100.165</v>
@@ -8384,7 +8384,7 @@
         <v>0.86668</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>172.97</v>
+        <v>8.34125</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>100.115</v>
@@ -8421,7 +8421,7 @@
         <v>0.866644</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>172.916</v>
+        <v>8.341850000000001</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>100.121</v>
@@ -8458,7 +8458,7 @@
         <v>0.866317</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>172.303</v>
+        <v>8.36684</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>100.557</v>
@@ -8495,7 +8495,7 @@
         <v>0.867752</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>172.301</v>
+        <v>8.402150000000001</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>101.104</v>
@@ -8532,7 +8532,7 @@
         <v>0.866803</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>172.16</v>
+        <v>8.415050000000001</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>101.441</v>
@@ -8569,7 +8569,7 @@
         <v>0.868431</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>172.387</v>
+        <v>8.41737</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>101.606</v>
@@ -8606,7 +8606,7 @@
         <v>0.872122</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>173.181</v>
+        <v>8.40385</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>101.533</v>
@@ -8643,7 +8643,7 @@
         <v>0.87353</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>173.356</v>
+        <v>8.407819999999999</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>101.558</v>
@@ -8680,7 +8680,7 @@
         <v>0.873702</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>173.397</v>
+        <v>8.4092</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>101.575</v>
@@ -8717,7 +8717,7 @@
         <v>0.870058</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>172.853</v>
+        <v>8.360010000000001</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>101.037</v>
@@ -8754,7 +8754,7 @@
         <v>0.866193</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>171.643</v>
+        <v>8.295970000000001</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>100.466</v>
@@ -8791,7 +8791,7 @@
         <v>0.863722</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>170.918</v>
+        <v>8.25977</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>100.571</v>
@@ -8828,7 +8828,7 @@
         <v>0.863679</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>171.36</v>
+        <v>8.216839999999999</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>100.086</v>
@@ -8865,7 +8865,7 @@
         <v>0.8684730000000001</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>171.4</v>
+        <v>8.27134</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>100.314</v>
@@ -8902,7 +8902,7 @@
         <v>0.87227</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>170.742</v>
+        <v>8.34442</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>101.012</v>
@@ -8939,7 +8939,7 @@
         <v>0.872261</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>170.723</v>
+        <v>8.34498</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>101.014</v>
@@ -8976,7 +8976,7 @@
         <v>0.870893</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>170.538</v>
+        <v>8.31696</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>101.385</v>
@@ -9013,7 +9013,7 @@
         <v>0.869825</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>170.42</v>
+        <v>8.301880000000001</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>101.508</v>
@@ -9050,7 +9050,7 @@
         <v>0.871447</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>171.211</v>
+        <v>8.342779999999999</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>101.865</v>
@@ -9087,7 +9087,7 @@
         <v>0.870007</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>171.679</v>
+        <v>8.37041</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>102.069</v>
@@ -9124,7 +9124,7 @@
         <v>0.866683</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>171.917</v>
+        <v>8.3667</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>102.043</v>
@@ -9161,7 +9161,7 @@
         <v>0.86524</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>171.946</v>
+        <v>8.357390000000001</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>102.034</v>
@@ -9198,7 +9198,7 @@
         <v>0.865348</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>171.949</v>
+        <v>8.35797</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>102.024</v>
@@ -9235,7 +9235,7 @@
         <v>0.865492</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>171.952</v>
+        <v>8.356629999999999</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>101.926</v>
@@ -9272,7 +9272,7 @@
         <v>0.86411</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>172.416</v>
+        <v>8.362819999999999</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>102.005</v>
@@ -9309,7 +9309,7 @@
         <v>0.863489</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>172.604</v>
+        <v>8.396940000000001</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>102.395</v>
@@ -9346,7 +9346,7 @@
         <v>0.860894</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>171.685</v>
+        <v>8.37424</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>102.223</v>
@@ -9383,7 +9383,7 @@
         <v>0.862163</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>171.913</v>
+        <v>8.389849999999999</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>102.287</v>
@@ -9420,7 +9420,7 @@
         <v>0.86321</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>172.18</v>
+        <v>8.40297</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>102.394</v>
@@ -9457,7 +9457,7 @@
         <v>0.863246</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>172.204</v>
+        <v>8.403689999999999</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>102.404</v>
@@ -9494,7 +9494,7 @@
         <v>0.863036</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>172.413</v>
+        <v>8.388109999999999</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>102.05</v>
@@ -9531,7 +9531,7 @@
         <v>0.86367</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>172.226</v>
+        <v>8.375970000000001</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>101.583</v>
@@ -9568,7 +9568,7 @@
         <v>0.8643150000000001</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>171.652</v>
+        <v>8.359690000000001</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>101.38</v>
@@ -9605,7 +9605,7 @@
         <v>0.865404</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>171.983</v>
+        <v>8.34769</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>101.393</v>
@@ -9642,7 +9642,7 @@
         <v>0.865627</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>172.256</v>
+        <v>8.35877</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>101.792</v>
@@ -9679,7 +9679,7 @@
         <v>0.86643</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>172.194</v>
+        <v>8.399760000000001</v>
       </c>
       <c r="G69" s="5" t="n">
         <v>102.376</v>
@@ -9716,7 +9716,7 @@
         <v>0.866456</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>172.198</v>
+        <v>8.399290000000001</v>
       </c>
       <c r="G70" s="5" t="n">
         <v>102.369</v>
@@ -9753,7 +9753,7 @@
         <v>0.8653960000000001</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>172.182</v>
+        <v>8.357570000000001</v>
       </c>
       <c r="G71" s="5" t="n">
         <v>102.171</v>
@@ -9790,7 +9790,7 @@
         <v>0.863926</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>171.687</v>
+        <v>8.32605</v>
       </c>
       <c r="G72" s="5" t="n">
         <v>102.026</v>
@@ -9827,7 +9827,7 @@
         <v>0.8625620000000001</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>171.578</v>
+        <v>8.309979999999999</v>
       </c>
       <c r="G73" s="5" t="n">
         <v>101.887</v>
@@ -9864,7 +9864,7 @@
         <v>0.863263</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>171.51</v>
+        <v>8.331860000000001</v>
       </c>
       <c r="G74" s="5" t="n">
         <v>102.161</v>
@@ -9901,7 +9901,7 @@
         <v>0.865429</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>171.674</v>
+        <v>8.334199999999999</v>
       </c>
       <c r="G75" s="5" t="n">
         <v>102.786</v>
@@ -9938,7 +9938,7 @@
         <v>0.86517</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>171.795</v>
+        <v>8.33109</v>
       </c>
       <c r="G76" s="5" t="n">
         <v>102.989</v>
@@ -9975,7 +9975,7 @@
         <v>0.865217</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>171.811</v>
+        <v>8.33156</v>
       </c>
       <c r="G77" s="5" t="n">
         <v>103</v>
@@ -10012,7 +10012,7 @@
         <v>0.865289</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>172.295</v>
+        <v>8.352399999999999</v>
       </c>
       <c r="G78" s="5" t="n">
         <v>103.181</v>
@@ -10049,7 +10049,7 @@
         <v>0.86799</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>172.788</v>
+        <v>8.32179</v>
       </c>
       <c r="G79" s="5" t="n">
         <v>102.665</v>
@@ -10086,7 +10086,7 @@
         <v>0.8687009999999999</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>172.901</v>
+        <v>8.31901</v>
       </c>
       <c r="G80" s="5" t="n">
         <v>102.58</v>
@@ -10123,7 +10123,7 @@
         <v>0.867089</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>172.825</v>
+        <v>8.31831</v>
       </c>
       <c r="G81" s="5" t="n">
         <v>102.676</v>
@@ -10160,7 +10160,7 @@
         <v>0.86738</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>172.853</v>
+        <v>8.35</v>
       </c>
       <c r="G82" s="5" t="n">
         <v>103.164</v>
@@ -10197,7 +10197,7 @@
         <v>0.86721</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>172.673</v>
+        <v>8.355980000000001</v>
       </c>
       <c r="G83" s="5" t="n">
         <v>103.314</v>
@@ -10234,7 +10234,7 @@
         <v>0.8672840000000001</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>172.787</v>
+        <v>8.35586</v>
       </c>
       <c r="G84" s="5" t="n">
         <v>103.309</v>
@@ -10271,7 +10271,7 @@
         <v>0.867632</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>173.418</v>
+        <v>8.36829</v>
       </c>
       <c r="G85" s="5" t="n">
         <v>103.297</v>
@@ -10308,7 +10308,7 @@
         <v>0.86642</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>172.737</v>
+        <v>8.365500000000001</v>
       </c>
       <c r="G86" s="5" t="n">
         <v>103.486</v>
@@ -10345,7 +10345,7 @@
         <v>0.864771</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>172.528</v>
+        <v>8.33541</v>
       </c>
       <c r="G87" s="5" t="n">
         <v>103.12</v>
@@ -10382,7 +10382,7 @@
         <v>0.864694</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>172.686</v>
+        <v>8.338789999999999</v>
       </c>
       <c r="G88" s="5" t="n">
         <v>103.386</v>
@@ -10419,7 +10419,7 @@
         <v>0.865056</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>173.119</v>
+        <v>8.35093</v>
       </c>
       <c r="G89" s="5" t="n">
         <v>103.535</v>
@@ -10456,7 +10456,7 @@
         <v>0.86531</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>173.292</v>
+        <v>8.35834</v>
       </c>
       <c r="G90" s="5" t="n">
         <v>103.575</v>
@@ -10493,7 +10493,7 @@
         <v>0.865283</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>173.284</v>
+        <v>8.357939999999999</v>
       </c>
       <c r="G91" s="5" t="n">
         <v>103.567</v>
@@ -10530,7 +10530,7 @@
         <v>0.8646</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>173.188</v>
+        <v>8.36666</v>
       </c>
       <c r="G92" s="5" t="n">
         <v>103.6</v>
@@ -10567,7 +10567,7 @@
         <v>0.86659</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>173.5</v>
+        <v>8.41015</v>
       </c>
       <c r="G93" s="5" t="n">
         <v>104.019</v>
@@ -10604,7 +10604,7 @@
         <v>0.867877</v>
       </c>
       <c r="F94" s="5" t="n">
-        <v>173.509</v>
+        <v>8.41926</v>
       </c>
       <c r="G94" s="5" t="n">
         <v>104.01</v>
@@ -10641,7 +10641,7 @@
         <v>0.86824</v>
       </c>
       <c r="F95" s="5" t="n">
-        <v>174.119</v>
+        <v>8.38735</v>
       </c>
       <c r="G95" s="5" t="n">
         <v>103.967</v>
@@ -10678,7 +10678,7 @@
         <v>0.871037</v>
       </c>
       <c r="F96" s="5" t="n">
-        <v>173.908</v>
+        <v>8.3643</v>
       </c>
       <c r="G96" s="5" t="n">
         <v>103.648</v>
@@ -10715,7 +10715,7 @@
         <v>0.87166</v>
       </c>
       <c r="F97" s="5" t="n">
-        <v>173.743</v>
+        <v>8.352819999999999</v>
       </c>
       <c r="G97" s="5" t="n">
         <v>103.441</v>
@@ -10752,7 +10752,7 @@
         <v>0.871655</v>
       </c>
       <c r="F98" s="5" t="n">
-        <v>173.742</v>
+        <v>8.3528</v>
       </c>
       <c r="G98" s="5" t="n">
         <v>103.44</v>
@@ -10789,7 +10789,7 @@
         <v>0.872052</v>
       </c>
       <c r="F99" s="5" t="n">
-        <v>174.093</v>
+        <v>8.370419999999999</v>
       </c>
       <c r="G99" s="5" t="n">
         <v>103.843</v>
@@ -10826,7 +10826,7 @@
         <v>0.873207</v>
       </c>
       <c r="F100" s="5" t="n">
-        <v>174.323</v>
+        <v>8.39476</v>
       </c>
       <c r="G100" s="5" t="n">
         <v>104.661</v>
@@ -10863,7 +10863,7 @@
         <v>0.873086</v>
       </c>
       <c r="F101" s="5" t="n">
-        <v>174.541</v>
+        <v>8.376110000000001</v>
       </c>
       <c r="G101" s="5" t="n">
         <v>104.387</v>
@@ -10900,7 +10900,7 @@
         <v>0.87362</v>
       </c>
       <c r="F102" s="5" t="n">
-        <v>174.687</v>
+        <v>8.348140000000001</v>
       </c>
       <c r="G102" s="5" t="n">
         <v>103.871</v>
@@ -10937,7 +10937,7 @@
         <v>0.873569</v>
       </c>
       <c r="F103" s="5" t="n">
-        <v>174.86</v>
+        <v>8.33512</v>
       </c>
       <c r="G103" s="5" t="n">
         <v>103.628</v>
@@ -10974,7 +10974,7 @@
         <v>0.87282</v>
       </c>
       <c r="F104" s="5" t="n">
-        <v>174.91</v>
+        <v>8.34596</v>
       </c>
       <c r="G104" s="5" t="n">
         <v>103.725</v>
@@ -11011,7 +11011,7 @@
         <v>0.872849</v>
       </c>
       <c r="F105" s="5" t="n">
-        <v>174.91</v>
+        <v>8.34629</v>
       </c>
       <c r="G105" s="5" t="n">
         <v>103.726</v>
@@ -11048,7 +11048,7 @@
         <v>0.872851</v>
       </c>
       <c r="F106" s="5" t="n">
-        <v>174.382</v>
+        <v>8.353770000000001</v>
       </c>
       <c r="G106" s="5" t="n">
         <v>104.014</v>
@@ -11085,7 +11085,7 @@
         <v>0.873085</v>
       </c>
       <c r="F107" s="5" t="n">
-        <v>173.792</v>
+        <v>8.3558</v>
       </c>
       <c r="G107" s="5" t="n">
         <v>104.211</v>
@@ -11122,7 +11122,7 @@
         <v>0.871353</v>
       </c>
       <c r="F108" s="5" t="n">
-        <v>172.887</v>
+        <v>8.35741</v>
       </c>
       <c r="G108" s="5" t="n">
         <v>104.127</v>
@@ -11159,7 +11159,7 @@
         <v>0.871289</v>
       </c>
       <c r="F109" s="5" t="n">
-        <v>172.549</v>
+        <v>8.350630000000001</v>
       </c>
       <c r="G109" s="5" t="n">
         <v>104.074</v>
@@ -11196,7 +11196,7 @@
         <v>0.871747</v>
       </c>
       <c r="F110" s="5" t="n">
-        <v>173.028</v>
+        <v>8.35295</v>
       </c>
       <c r="G110" s="5" t="n">
         <v>104.129</v>
@@ -11233,7 +11233,7 @@
         <v>0.8708900000000001</v>
       </c>
       <c r="F111" s="5" t="n">
-        <v>173.165</v>
+        <v>8.359059999999999</v>
       </c>
       <c r="G111" s="5" t="n">
         <v>104.193</v>
@@ -11270,7 +11270,7 @@
         <v>0.871011</v>
       </c>
       <c r="F112" s="5" t="n">
-        <v>173.384</v>
+        <v>8.356859999999999</v>
       </c>
       <c r="G112" s="5" t="n">
         <v>104.157</v>
@@ -11307,7 +11307,7 @@
         <v>0.8695580000000001</v>
       </c>
       <c r="F113" s="5" t="n">
-        <v>175.683</v>
+        <v>8.330909999999999</v>
       </c>
       <c r="G113" s="5" t="n">
         <v>103.847</v>
@@ -11344,7 +11344,7 @@
         <v>0.868489</v>
       </c>
       <c r="F114" s="5" t="n">
-        <v>176.32</v>
+        <v>8.311159999999999</v>
       </c>
       <c r="G114" s="5" t="n">
         <v>103.594</v>
@@ -11381,7 +11381,7 @@
         <v>0.86717</v>
       </c>
       <c r="F115" s="5" t="n">
-        <v>177.357</v>
+        <v>8.27458</v>
       </c>
       <c r="G115" s="5" t="n">
         <v>103.171</v>
@@ -11418,7 +11418,7 @@
         <v>0.868634</v>
       </c>
       <c r="F116" s="5" t="n">
-        <v>177.301</v>
+        <v>8.26271</v>
       </c>
       <c r="G116" s="5" t="n">
         <v>103.014</v>
@@ -11455,7 +11455,7 @@
         <v>0.870041</v>
       </c>
       <c r="F117" s="5" t="n">
-        <v>176.497</v>
+        <v>8.25272</v>
       </c>
       <c r="G117" s="5" t="n">
         <v>102.784</v>
@@ -11492,7 +11492,7 @@
         <v>0.86954</v>
       </c>
       <c r="F118" s="5" t="n">
-        <v>175.658</v>
+        <v>8.26811</v>
       </c>
       <c r="G118" s="5" t="n">
         <v>103.112</v>
@@ -11529,7 +11529,7 @@
         <v>0.869552</v>
       </c>
       <c r="F119" s="5" t="n">
-        <v>175.737</v>
+        <v>8.26731</v>
       </c>
       <c r="G119" s="5" t="n">
         <v>103.09</v>
@@ -11566,7 +11566,7 @@
         <v>0.868711</v>
       </c>
       <c r="F120" s="5" t="n">
-        <v>176.309</v>
+        <v>8.24774</v>
       </c>
       <c r="G120" s="5" t="n">
         <v>102.765</v>
@@ -11603,7 +11603,7 @@
         <v>0.87017</v>
       </c>
       <c r="F121" s="5" t="n">
-        <v>175.99</v>
+        <v>8.25554</v>
       </c>
       <c r="G121" s="5" t="n">
         <v>102.797</v>
@@ -11640,7 +11640,7 @@
         <v>0.8700870000000001</v>
       </c>
       <c r="F122" s="5" t="n">
-        <v>175.912</v>
+        <v>8.29247</v>
       </c>
       <c r="G122" s="5" t="n">
         <v>102.517</v>
@@ -11677,7 +11677,7 @@
         <v>0.8688090000000001</v>
       </c>
       <c r="F123" s="5" t="n">
-        <v>175.946</v>
+        <v>8.313219999999999</v>
       </c>
       <c r="G123" s="5" t="n">
         <v>102.557</v>
@@ -11714,7 +11714,7 @@
         <v>0.869864</v>
       </c>
       <c r="F124" s="5" t="n">
-        <v>175.522</v>
+        <v>8.324339999999999</v>
       </c>
       <c r="G124" s="5" t="n">
         <v>102.776</v>
@@ -11751,7 +11751,7 @@
         <v>0.8676</v>
       </c>
       <c r="F125" s="5" t="n">
-        <v>175.486</v>
+        <v>8.30237</v>
       </c>
       <c r="G125" s="5" t="n">
         <v>102.513</v>
@@ -11788,7 +11788,7 @@
         <v>0.867659</v>
       </c>
       <c r="F126" s="5" t="n">
-        <v>175.51</v>
+        <v>8.302960000000001</v>
       </c>
       <c r="G126" s="5" t="n">
         <v>102.517</v>
@@ -11825,7 +11825,7 @@
         <v>0.868493</v>
       </c>
       <c r="F127" s="5" t="n">
-        <v>175.667</v>
+        <v>8.301640000000001</v>
       </c>
       <c r="G127" s="5" t="n">
         <v>102.447</v>
@@ -11862,7 +11862,7 @@
         <v>0.8681410000000001</v>
       </c>
       <c r="F128" s="5" t="n">
-        <v>176.105</v>
+        <v>8.271789999999999</v>
       </c>
       <c r="G128" s="5" t="n">
         <v>102.214</v>
@@ -11899,7 +11899,7 @@
         <v>0.869051</v>
       </c>
       <c r="F129" s="5" t="n">
-        <v>176.151</v>
+        <v>8.26601</v>
       </c>
       <c r="G129" s="5" t="n">
         <v>101.818</v>
@@ -11936,7 +11936,7 @@
         <v>0.870156</v>
       </c>
       <c r="F130" s="5" t="n">
-        <v>177.009</v>
+        <v>8.266579999999999</v>
       </c>
       <c r="G130" s="5" t="n">
         <v>101.913</v>
@@ -11973,7 +11973,7 @@
         <v>0.872426</v>
       </c>
       <c r="F131" s="5" t="n">
-        <v>177.581</v>
+        <v>8.27596</v>
       </c>
       <c r="G131" s="5" t="n">
         <v>101.996</v>
@@ -12010,7 +12010,7 @@
         <v>0.87291</v>
       </c>
       <c r="F132" s="5" t="n">
-        <v>177.692</v>
+        <v>8.27854</v>
       </c>
       <c r="G132" s="5" t="n">
         <v>102.076</v>
@@ -12047,7 +12047,7 @@
         <v>0.87291</v>
       </c>
       <c r="F133" s="5" t="n">
-        <v>177.724</v>
+        <v>8.27891</v>
       </c>
       <c r="G133" s="5" t="n">
         <v>102.084</v>
@@ -12084,7 +12084,7 @@
         <v>0.8728399999999999</v>
       </c>
       <c r="F134" s="5" t="n">
-        <v>177.947</v>
+        <v>8.27647</v>
       </c>
       <c r="G134" s="5" t="n">
         <v>102.538</v>
@@ -12121,7 +12121,7 @@
         <v>0.875743</v>
       </c>
       <c r="F135" s="5" t="n">
-        <v>177.314</v>
+        <v>8.277290000000001</v>
       </c>
       <c r="G135" s="5" t="n">
         <v>102.863</v>
@@ -12158,7 +12158,7 @@
         <v>0.879596</v>
       </c>
       <c r="F136" s="5" t="n">
-        <v>177.1</v>
+        <v>8.25474</v>
       </c>
       <c r="G136" s="5" t="n">
         <v>102.616</v>
@@ -12195,7 +12195,7 @@
         <v>0.879773</v>
       </c>
       <c r="F137" s="5" t="n">
-        <v>178.117</v>
+        <v>8.23437</v>
       </c>
       <c r="G137" s="5" t="n">
         <v>102.67</v>
@@ -12232,7 +12232,7 @@
         <v>0.879034</v>
       </c>
       <c r="F138" s="5" t="n">
-        <v>177.952</v>
+        <v>8.21397</v>
       </c>
       <c r="G138" s="5" t="n">
         <v>102.449</v>
@@ -12269,7 +12269,7 @@
         <v>0.87695</v>
       </c>
       <c r="F139" s="5" t="n">
-        <v>177.627</v>
+        <v>8.19753</v>
       </c>
       <c r="G139" s="5" t="n">
         <v>102.115</v>
@@ -12306,7 +12306,7 @@
         <v>0.877015</v>
       </c>
       <c r="F140" s="5" t="n">
-        <v>177.633</v>
+        <v>8.19767</v>
       </c>
       <c r="G140" s="5" t="n">
         <v>102.135</v>
@@ -12343,7 +12343,7 @@
         <v>0.877148</v>
       </c>
       <c r="F141" s="5" t="n">
-        <v>177.63</v>
+        <v>8.206049999999999</v>
       </c>
       <c r="G141" s="5" t="n">
         <v>102.263</v>
@@ -12380,7 +12380,7 @@
         <v>0.879518</v>
       </c>
       <c r="F142" s="5" t="n">
-        <v>176.722</v>
+        <v>8.18849</v>
       </c>
       <c r="G142" s="5" t="n">
         <v>101.962</v>
@@ -12417,7 +12417,7 @@
         <v>0.881192</v>
       </c>
       <c r="F143" s="5" t="n">
-        <v>176.617</v>
+        <v>8.185359999999999</v>
       </c>
       <c r="G143" s="5" t="n">
         <v>101.817</v>
@@ -12454,7 +12454,7 @@
         <v>0.880155</v>
       </c>
       <c r="F144" s="5" t="n">
-        <v>176.9</v>
+        <v>8.20642</v>
       </c>
       <c r="G144" s="5" t="n">
         <v>102.123</v>
@@ -12491,7 +12491,7 @@
         <v>0.879509</v>
       </c>
       <c r="F145" s="5" t="n">
-        <v>177.074</v>
+        <v>8.22498</v>
       </c>
       <c r="G145" s="5" t="n">
         <v>102.443</v>
@@ -12528,7 +12528,7 @@
         <v>0.87839</v>
       </c>
       <c r="F146" s="5" t="n">
-        <v>177.418</v>
+        <v>8.23339</v>
       </c>
       <c r="G146" s="5" t="n">
         <v>102.498</v>
@@ -12565,7 +12565,7 @@
         <v>0.878374</v>
       </c>
       <c r="F147" s="5" t="n">
-        <v>177.431</v>
+        <v>8.232570000000001</v>
       </c>
       <c r="G147" s="5" t="n">
         <v>102.485</v>
@@ -12602,7 +12602,7 @@
         <v>0.878072</v>
       </c>
       <c r="F148" s="5" t="n">
-        <v>178.041</v>
+        <v>8.22917</v>
       </c>
       <c r="G148" s="5" t="n">
         <v>102.516</v>
@@ -12639,7 +12639,7 @@
         <v>0.87956</v>
       </c>
       <c r="F149" s="5" t="n">
-        <v>178.43</v>
+        <v>8.235749999999999</v>
       </c>
       <c r="G149" s="5" t="n">
         <v>102.484</v>
@@ -12676,7 +12676,7 @@
         <v>0.881962</v>
       </c>
       <c r="F150" s="5" t="n">
-        <v>179.11</v>
+        <v>8.2387</v>
       </c>
       <c r="G150" s="5" t="n">
         <v>102.598</v>
@@ -12713,7 +12713,7 @@
         <v>0.882656</v>
       </c>
       <c r="F151" s="5" t="n">
-        <v>179.587</v>
+        <v>8.249969999999999</v>
       </c>
       <c r="G151" s="5" t="n">
         <v>103.037</v>
@@ -12750,7 +12750,7 @@
         <v>0.883802</v>
       </c>
       <c r="F152" s="5" t="n">
-        <v>179.631</v>
+        <v>8.257490000000001</v>
       </c>
       <c r="G152" s="5" t="n">
         <v>103.141</v>
@@ -12787,7 +12787,7 @@
         <v>0.88174</v>
       </c>
       <c r="F153" s="5" t="n">
-        <v>179.543</v>
+        <v>8.249560000000001</v>
       </c>
       <c r="G153" s="5" t="n">
         <v>103.028</v>
@@ -12824,7 +12824,7 @@
         <v>0.881806</v>
       </c>
       <c r="F154" s="5" t="n">
-        <v>179.546</v>
+        <v>8.24901</v>
       </c>
       <c r="G154" s="5" t="n">
         <v>103.02</v>
@@ -12861,7 +12861,7 @@
         <v>0.881125</v>
       </c>
       <c r="F155" s="5" t="n">
-        <v>179.645</v>
+        <v>8.236000000000001</v>
       </c>
       <c r="G155" s="5" t="n">
         <v>102.783</v>
@@ -12898,7 +12898,7 @@
         <v>0.881091</v>
       </c>
       <c r="F156" s="5" t="n">
-        <v>179.958</v>
+        <v>8.23493</v>
       </c>
       <c r="G156" s="5" t="n">
         <v>102.643</v>
@@ -12935,7 +12935,7 @@
         <v>0.88213</v>
       </c>
       <c r="F157" s="5" t="n">
-        <v>180.53</v>
+        <v>8.218349999999999</v>
       </c>
       <c r="G157" s="5" t="n">
         <v>102.329</v>
@@ -12972,7 +12972,7 @@
         <v>0.881757</v>
       </c>
       <c r="F158" s="5" t="n">
-        <v>181.465</v>
+        <v>8.19258</v>
       </c>
       <c r="G158" s="5" t="n">
         <v>102.185</v>
@@ -13009,7 +13009,7 @@
         <v>0.880436</v>
       </c>
       <c r="F159" s="5" t="n">
-        <v>180.699</v>
+        <v>8.1876</v>
       </c>
       <c r="G159" s="5" t="n">
         <v>102.823</v>
@@ -13046,7 +13046,7 @@
         <v>0.87865</v>
       </c>
       <c r="F160" s="5" t="n">
-        <v>180.002</v>
+        <v>8.17844</v>
       </c>
       <c r="G160" s="5" t="n">
         <v>103.156</v>
@@ -13083,7 +13083,7 @@
         <v>0.878642</v>
       </c>
       <c r="F161" s="5" t="n">
-        <v>180.017</v>
+        <v>8.178089999999999</v>
       </c>
       <c r="G161" s="5" t="n">
         <v>103.146</v>
@@ -13120,7 +13120,7 @@
         <v>0.879677</v>
       </c>
       <c r="F162" s="5" t="n">
-        <v>180.688</v>
+        <v>8.186019999999999</v>
       </c>
       <c r="G162" s="5" t="n">
         <v>102.806</v>
@@ -13157,7 +13157,7 @@
         <v>0.878386</v>
       </c>
       <c r="F163" s="5" t="n">
-        <v>180.501</v>
+        <v>8.1876</v>
       </c>
       <c r="G163" s="5" t="n">
         <v>102.926</v>
@@ -13194,7 +13194,7 @@
         <v>0.877475</v>
       </c>
       <c r="F164" s="5" t="n">
-        <v>181.07</v>
+        <v>8.200049999999999</v>
       </c>
       <c r="G164" s="5" t="n">
         <v>103.324</v>
@@ -13231,7 +13231,7 @@
         <v>0.8756699999999999</v>
       </c>
       <c r="F165" s="5" t="n">
-        <v>181.133</v>
+        <v>8.206099999999999</v>
       </c>
       <c r="G165" s="5" t="n">
         <v>103.539</v>
@@ -13268,7 +13268,7 @@
         <v>0.875766</v>
       </c>
       <c r="F166" s="5" t="n">
-        <v>181.009</v>
+        <v>8.19697</v>
       </c>
       <c r="G166" s="5" t="n">
         <v>103.577</v>
@@ -13305,7 +13305,7 @@
         <v>0.87588</v>
       </c>
       <c r="F167" s="5" t="n">
-        <v>181.065</v>
+        <v>8.200810000000001</v>
       </c>
       <c r="G167" s="5" t="n">
         <v>103.591</v>
@@ -13342,7 +13342,7 @@
         <v>0.875908</v>
       </c>
       <c r="F168" s="5" t="n">
-        <v>181.06</v>
+        <v>8.201079999999999</v>
       </c>
       <c r="G168" s="5" t="n">
         <v>103.586</v>
@@ -13379,7 +13379,7 @@
         <v>0.8778860000000001</v>
       </c>
       <c r="F169" s="5" t="n">
-        <v>180.448</v>
+        <v>8.21425</v>
       </c>
       <c r="G169" s="5" t="n">
         <v>103.991</v>
@@ -13416,7 +13416,7 @@
         <v>0.879167</v>
       </c>
       <c r="F170" s="5" t="n">
-        <v>180.963</v>
+        <v>8.210900000000001</v>
       </c>
       <c r="G170" s="5" t="n">
         <v>104.333</v>
@@ -13453,7 +13453,7 @@
         <v>0.8769749999999999</v>
       </c>
       <c r="F171" s="5" t="n">
-        <v>181.159</v>
+        <v>8.23579</v>
       </c>
       <c r="G171" s="5" t="n">
         <v>105.036</v>
@@ -13490,7 +13490,7 @@
         <v>0.873905</v>
       </c>
       <c r="F172" s="5" t="n">
-        <v>180.763</v>
+        <v>8.241199999999999</v>
       </c>
       <c r="G172" s="5" t="n">
         <v>104.921</v>
@@ -13527,7 +13527,7 @@
         <v>0.873298</v>
       </c>
       <c r="F173" s="5" t="n">
-        <v>180.659</v>
+        <v>8.236129999999999</v>
       </c>
       <c r="G173" s="5" t="n">
         <v>104.75</v>
@@ -13564,7 +13564,7 @@
         <v>0.87295</v>
       </c>
       <c r="F174" s="5" t="n">
-        <v>180.812</v>
+        <v>8.232860000000001</v>
       </c>
       <c r="G174" s="5" t="n">
         <v>104.666</v>
@@ -13601,7 +13601,7 @@
         <v>0.8729749999999999</v>
       </c>
       <c r="F175" s="5" t="n">
-        <v>180.804</v>
+        <v>8.2325</v>
       </c>
       <c r="G175" s="5" t="n">
         <v>104.663</v>
@@ -13638,7 +13638,7 @@
         <v>0.873816</v>
       </c>
       <c r="F176" s="5" t="n">
-        <v>181.097</v>
+        <v>8.233000000000001</v>
       </c>
       <c r="G176" s="5" t="n">
         <v>104.904</v>
@@ -13675,7 +13675,7 @@
         <v>0.873654</v>
       </c>
       <c r="F177" s="5" t="n">
-        <v>181.966</v>
+        <v>8.22452</v>
       </c>
       <c r="G177" s="5" t="n">
         <v>104.641</v>
@@ -13712,7 +13712,7 @@
         <v>0.87385</v>
       </c>
       <c r="F178" s="5" t="n">
-        <v>182.276</v>
+        <v>8.226800000000001</v>
       </c>
       <c r="G178" s="5" t="n">
         <v>104.693</v>
@@ -13749,7 +13749,7 @@
         <v>0.875235</v>
       </c>
       <c r="F179" s="5" t="n">
-        <v>182.357</v>
+        <v>8.274520000000001</v>
       </c>
       <c r="G179" s="5" t="n">
         <v>105.695</v>
@@ -13786,7 +13786,7 @@
         <v>0.87723</v>
       </c>
       <c r="F180" s="5" t="n">
-        <v>182.847</v>
+        <v>8.28119</v>
       </c>
       <c r="G180" s="5" t="n">
         <v>106.151</v>
@@ -13823,7 +13823,7 @@
         <v>0.87766</v>
       </c>
       <c r="F181" s="5" t="n">
-        <v>182.924</v>
+        <v>8.28177</v>
       </c>
       <c r="G181" s="5" t="n">
         <v>106.284</v>
@@ -13860,7 +13860,7 @@
         <v>0.877658</v>
       </c>
       <c r="F182" s="5" t="n">
-        <v>182.92</v>
+        <v>8.28154</v>
       </c>
       <c r="G182" s="5" t="n">
         <v>106.276</v>
@@ -13897,7 +13897,7 @@
         <v>0.878103</v>
       </c>
       <c r="F183" s="5" t="n">
-        <v>182.304</v>
+        <v>8.27969</v>
       </c>
       <c r="G183" s="5" t="n">
         <v>106.486</v>
@@ -13934,7 +13934,7 @@
         <v>0.877208</v>
       </c>
       <c r="F184" s="5" t="n">
-        <v>182</v>
+        <v>8.28228</v>
       </c>
       <c r="G184" s="5" t="n">
         <v>106.878</v>
@@ -13971,7 +13971,7 @@
         <v>0.877368</v>
       </c>
       <c r="F185" s="5" t="n">
-        <v>182.307</v>
+        <v>8.264430000000001</v>
       </c>
       <c r="G185" s="5" t="n">
         <v>106.153</v>
@@ -14034,14 +14034,14 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Последнее обновление: 18.12.2025 05:38:31</t>
+          <t>Последнее обновление: 18.12.2025 08:11:30</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Валютные пары: AED/EUR, AED/AED, AED/CHF, AED/GBP, AED/JPY, AED/INR, AED/RUB, AED/KZT, AED/HKD, AED/USD</t>
+          <t>Валютные пары: AED/EUR, AED/AED, AED/CHF, AED/GBP, AED/CNY, AED/INR, AED/RUB, AED/KZT, AED/HKD, AED/USD</t>
         </is>
       </c>
     </row>
@@ -14073,7 +14073,7 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>AED/JPY</t>
+          <t>AED/CNY</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -14121,7 +14121,7 @@
         <v>0.202378</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39.7689</v>
+        <v>1.9558</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>23.5521</v>
@@ -14158,7 +14158,7 @@
         <v>0.202431</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39.7811</v>
+        <v>1.9558</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>23.5512</v>
@@ -14195,7 +14195,7 @@
         <v>0.202329</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>39.9599</v>
+        <v>1.9558</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>23.5847</v>
@@ -14232,7 +14232,7 @@
         <v>0.200211</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>39.4937</v>
+        <v>1.95351</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>23.4249</v>
@@ -14269,7 +14269,7 @@
         <v>0.199731</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39.557</v>
+        <v>1.95281</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>23.4115</v>
@@ -14306,7 +14306,7 @@
         <v>0.198342</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39.3132</v>
+        <v>1.9523</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>23.3398</v>
@@ -14343,7 +14343,7 @@
         <v>0.198345</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>39.3576</v>
+        <v>1.95196</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>23.2783</v>
@@ -14380,7 +14380,7 @@
         <v>0.198376</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39.3779</v>
+        <v>1.95257</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>23.2509</v>
@@ -14417,7 +14417,7 @@
         <v>0.19838</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39.3726</v>
+        <v>1.95258</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>23.2534</v>
@@ -14454,7 +14454,7 @@
         <v>0.198505</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>39.2496</v>
+        <v>1.95119</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>23.3116</v>
@@ -14491,7 +14491,7 @@
         <v>0.198074</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39.0496</v>
+        <v>1.95019</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>23.3001</v>
@@ -14528,7 +14528,7 @@
         <v>0.199026</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39.1313</v>
+        <v>1.95063</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>23.3121</v>
@@ -14565,7 +14565,7 @@
         <v>0.19946</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>39.2936</v>
+        <v>1.9506</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>23.2587</v>
@@ -14602,7 +14602,7 @@
         <v>0.19934</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39.3241</v>
+        <v>1.95043</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>23.2421</v>
@@ -14639,7 +14639,7 @@
         <v>0.199321</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39.3201</v>
+        <v>1.9504</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>23.1329</v>
@@ -14676,7 +14676,7 @@
         <v>0.199322</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>39.3215</v>
+        <v>1.9504</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>23.1348</v>
@@ -14713,7 +14713,7 @@
         <v>0.199909</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39.5955</v>
+        <v>1.95211</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>23.3541</v>
@@ -14750,7 +14750,7 @@
         <v>0.200158</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>39.8607</v>
+        <v>1.95301</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>23.338</v>
@@ -14787,7 +14787,7 @@
         <v>0.200324</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>39.9109</v>
+        <v>1.95402</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>23.3381</v>
@@ -14824,7 +14824,7 @@
         <v>0.200327</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39.8137</v>
+        <v>1.95398</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>23.3248</v>
@@ -14861,7 +14861,7 @@
         <v>0.20127</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>40.0438</v>
+        <v>1.95222</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>23.3608</v>
@@ -14898,7 +14898,7 @@
         <v>0.201756</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>40.1312</v>
+        <v>1.9515</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>23.3654</v>
@@ -14935,7 +14935,7 @@
         <v>0.201761</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>40.1271</v>
+        <v>1.9515</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>23.3654</v>
@@ -14972,7 +14972,7 @@
         <v>0.202214</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>40.1389</v>
+        <v>1.95142</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>23.3842</v>
@@ -15009,7 +15009,7 @@
         <v>0.202875</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>40.3492</v>
+        <v>1.95215</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>23.3859</v>
@@ -15046,7 +15046,7 @@
         <v>0.203086</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>40.4123</v>
+        <v>1.95361</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>23.3886</v>
@@ -15083,7 +15083,7 @@
         <v>0.203093</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>40.4424</v>
+        <v>1.95462</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>23.4106</v>
@@ -15120,7 +15120,7 @@
         <v>0.202681</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>40.4612</v>
+        <v>1.95457</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>23.4461</v>
@@ -15157,7 +15157,7 @@
         <v>0.202977</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>40.514</v>
+        <v>1.95408</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>23.4536</v>
@@ -15194,7 +15194,7 @@
         <v>0.202965</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>40.4993</v>
+        <v>1.9541</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>23.4536</v>
@@ -15231,7 +15231,7 @@
         <v>0.202238</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>40.2246</v>
+        <v>1.95333</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>23.4762</v>
@@ -15268,7 +15268,7 @@
         <v>0.201678</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>40.0466</v>
+        <v>1.95291</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>23.4997</v>
@@ -15305,7 +15305,7 @@
         <v>0.200912</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>39.9049</v>
+        <v>1.95062</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>23.5142</v>
@@ -15342,7 +15342,7 @@
         <v>0.200985</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>39.8976</v>
+        <v>1.94823</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>23.517</v>
@@ -15379,7 +15379,7 @@
         <v>0.202272</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>40.166</v>
+        <v>1.9492</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>23.5496</v>
@@ -15416,7 +15416,7 @@
         <v>0.20259</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>40.1976</v>
+        <v>1.94976</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>23.5511</v>
@@ -15453,7 +15453,7 @@
         <v>0.202589</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>40.2002</v>
+        <v>1.94975</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>23.551</v>
@@ -15490,7 +15490,7 @@
         <v>0.203078</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>40.3464</v>
+        <v>1.95141</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>23.5842</v>
@@ -15527,7 +15527,7 @@
         <v>0.203993</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>40.424</v>
+        <v>1.95389</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>23.6621</v>
@@ -15564,7 +15564,7 @@
         <v>0.204404</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>40.4499</v>
+        <v>1.95482</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>23.8019</v>
@@ -15601,7 +15601,7 @@
         <v>0.205712</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>40.8158</v>
+        <v>1.95722</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>23.8401</v>
@@ -15638,7 +15638,7 @@
         <v>0.205853</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>40.6287</v>
+        <v>1.96059</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>23.7779</v>
@@ -15675,7 +15675,7 @@
         <v>0.205006</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>40.1211</v>
+        <v>1.96072</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>23.7351</v>
@@ -15712,7 +15712,7 @@
         <v>0.204997</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>40.1165</v>
+        <v>1.96086</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>23.7356</v>
@@ -15749,7 +15749,7 @@
         <v>0.204893</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>40.1228</v>
+        <v>1.95683</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>23.8542</v>
@@ -15786,7 +15786,7 @@
         <v>0.204835</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>40.133</v>
+        <v>1.95514</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>23.9055</v>
@@ -15823,7 +15823,7 @@
         <v>0.204281</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>40.1355</v>
+        <v>1.95583</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>23.8807</v>
@@ -15860,7 +15860,7 @@
         <v>0.203174</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>40.0911</v>
+        <v>1.95491</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>23.8382</v>
@@ -15897,7 +15897,7 @@
         <v>0.202498</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>40.1676</v>
+        <v>1.95505</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>23.8445</v>
@@ -15934,7 +15934,7 @@
         <v>0.202312</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>40.2145</v>
+        <v>1.95478</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>23.8656</v>
@@ -15971,7 +15971,7 @@
         <v>0.202327</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>40.2126</v>
+        <v>1.95478</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>23.8616</v>
@@ -16008,7 +16008,7 @@
         <v>0.202533</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>40.2396</v>
+        <v>1.95566</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>23.8532</v>
@@ -16045,7 +16045,7 @@
         <v>0.202088</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>40.3236</v>
+        <v>1.95593</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>23.8574</v>
@@ -16082,7 +16082,7 @@
         <v>0.200892</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>40.1579</v>
+        <v>1.95371</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>23.8243</v>
@@ -16119,7 +16119,7 @@
         <v>0.200771</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>40.04</v>
+        <v>1.9531</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>23.8412</v>
@@ -16156,7 +16156,7 @@
         <v>0.200851</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>40.0504</v>
+        <v>1.95467</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>23.831</v>
@@ -16193,7 +16193,7 @@
         <v>0.200798</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>40.0566</v>
+        <v>1.95509</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>23.8238</v>
@@ -16230,7 +16230,7 @@
         <v>0.200792</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>40.0588</v>
+        <v>1.9551</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>23.8241</v>
@@ -16267,7 +16267,7 @@
         <v>0.201136</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>40.1832</v>
+        <v>1.95505</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>23.7853</v>
@@ -16304,7 +16304,7 @@
         <v>0.20161</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>40.2042</v>
+        <v>1.95538</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>23.7147</v>
@@ -16341,7 +16341,7 @@
         <v>0.20202</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>40.1223</v>
+        <v>1.95411</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>23.698</v>
@@ -16378,7 +16378,7 @@
         <v>0.202526</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>40.2522</v>
+        <v>1.95383</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>23.7315</v>
@@ -16415,7 +16415,7 @@
         <v>0.202252</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>40.2533</v>
+        <v>1.95335</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>23.7875</v>
@@ -16452,7 +16452,7 @@
         <v>0.201159</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>39.9939</v>
+        <v>1.95112</v>
       </c>
       <c r="G69" s="5" t="n">
         <v>23.7803</v>
@@ -16489,7 +16489,7 @@
         <v>0.201184</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>39.9971</v>
+        <v>1.95112</v>
       </c>
       <c r="G70" s="5" t="n">
         <v>23.78</v>
@@ -16526,7 +16526,7 @@
         <v>0.201774</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>40.1468</v>
+        <v>1.94876</v>
       </c>
       <c r="G71" s="5" t="n">
         <v>23.8235</v>
@@ -16563,7 +16563,7 @@
         <v>0.202041</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>40.1525</v>
+        <v>1.9473</v>
       </c>
       <c r="G72" s="5" t="n">
         <v>23.8618</v>
@@ -16600,7 +16600,7 @@
         <v>0.202138</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>40.2096</v>
+        <v>1.94753</v>
       </c>
       <c r="G73" s="5" t="n">
         <v>23.8783</v>
@@ -16637,7 +16637,7 @@
         <v>0.201498</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>40.0344</v>
+        <v>1.94493</v>
       </c>
       <c r="G74" s="5" t="n">
         <v>23.8476</v>
@@ -16674,7 +16674,7 @@
         <v>0.201738</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>40.0215</v>
+        <v>1.943</v>
       </c>
       <c r="G75" s="5" t="n">
         <v>23.963</v>
@@ -16711,7 +16711,7 @@
         <v>0.201481</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>40.0257</v>
+        <v>1.94112</v>
       </c>
       <c r="G76" s="5" t="n">
         <v>23.996</v>
@@ -16748,7 +16748,7 @@
         <v>0.20149</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>40.0269</v>
+        <v>1.94112</v>
       </c>
       <c r="G77" s="5" t="n">
         <v>23.9972</v>
@@ -16785,7 +16785,7 @@
         <v>0.201143</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>40.0523</v>
+        <v>1.94171</v>
       </c>
       <c r="G78" s="5" t="n">
         <v>23.9868</v>
@@ -16822,7 +16822,7 @@
         <v>0.202655</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>40.344</v>
+        <v>1.9431</v>
       </c>
       <c r="G79" s="5" t="n">
         <v>23.9718</v>
@@ -16859,7 +16859,7 @@
         <v>0.203</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>40.4054</v>
+        <v>1.94415</v>
       </c>
       <c r="G80" s="5" t="n">
         <v>23.9729</v>
@@ -16896,7 +16896,7 @@
         <v>0.20263</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>40.3886</v>
+        <v>1.94404</v>
       </c>
       <c r="G81" s="5" t="n">
         <v>23.9961</v>
@@ -16933,7 +16933,7 @@
         <v>0.201809</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>40.2191</v>
+        <v>1.94294</v>
       </c>
       <c r="G82" s="5" t="n">
         <v>24.005</v>
@@ -16970,7 +16970,7 @@
         <v>0.201457</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>40.1237</v>
+        <v>1.94177</v>
       </c>
       <c r="G83" s="5" t="n">
         <v>24.0081</v>
@@ -17007,7 +17007,7 @@
         <v>0.201489</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>40.1519</v>
+        <v>1.94182</v>
       </c>
       <c r="G84" s="5" t="n">
         <v>24.008</v>
@@ -17044,7 +17044,7 @@
         <v>0.201265</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>40.2285</v>
+        <v>1.94131</v>
       </c>
       <c r="G85" s="5" t="n">
         <v>23.9633</v>
@@ -17081,7 +17081,7 @@
         <v>0.200878</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>40.0496</v>
+        <v>1.93966</v>
       </c>
       <c r="G86" s="5" t="n">
         <v>23.9947</v>
@@ -17118,7 +17118,7 @@
         <v>0.201114</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>40.1244</v>
+        <v>1.93864</v>
       </c>
       <c r="G87" s="5" t="n">
         <v>23.9837</v>
@@ -17155,7 +17155,7 @@
         <v>0.200981</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>40.136</v>
+        <v>1.93833</v>
       </c>
       <c r="G88" s="5" t="n">
         <v>24.0318</v>
@@ -17192,7 +17192,7 @@
         <v>0.200799</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>40.1837</v>
+        <v>1.93865</v>
       </c>
       <c r="G89" s="5" t="n">
         <v>24.0355</v>
@@ -17229,7 +17229,7 @@
         <v>0.200703</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>40.1977</v>
+        <v>1.93943</v>
       </c>
       <c r="G90" s="5" t="n">
         <v>24.0332</v>
@@ -17266,7 +17266,7 @@
         <v>0.200709</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>40.1976</v>
+        <v>1.93941</v>
       </c>
       <c r="G91" s="5" t="n">
         <v>24.0321</v>
@@ -17303,7 +17303,7 @@
         <v>0.200323</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>40.1276</v>
+        <v>1.93864</v>
       </c>
       <c r="G92" s="5" t="n">
         <v>24.0052</v>
@@ -17340,7 +17340,7 @@
         <v>0.199607</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>39.9642</v>
+        <v>1.93729</v>
       </c>
       <c r="G93" s="5" t="n">
         <v>23.9608</v>
@@ -17377,7 +17377,7 @@
         <v>0.199467</v>
       </c>
       <c r="F94" s="5" t="n">
-        <v>39.8788</v>
+        <v>1.93515</v>
       </c>
       <c r="G94" s="5" t="n">
         <v>23.9064</v>
@@ -17414,7 +17414,7 @@
         <v>0.200282</v>
       </c>
       <c r="F95" s="5" t="n">
-        <v>40.1661</v>
+        <v>1.9349</v>
       </c>
       <c r="G95" s="5" t="n">
         <v>23.9845</v>
@@ -17451,7 +17451,7 @@
         <v>0.201647</v>
       </c>
       <c r="F96" s="5" t="n">
-        <v>40.2596</v>
+        <v>1.93655</v>
       </c>
       <c r="G96" s="5" t="n">
         <v>23.9971</v>
@@ -17488,7 +17488,7 @@
         <v>0.20203</v>
       </c>
       <c r="F97" s="5" t="n">
-        <v>40.2775</v>
+        <v>1.93665</v>
       </c>
       <c r="G97" s="5" t="n">
         <v>23.9834</v>
@@ -17525,7 +17525,7 @@
         <v>0.202034</v>
       </c>
       <c r="F98" s="5" t="n">
-        <v>40.2776</v>
+        <v>1.93667</v>
       </c>
       <c r="G98" s="5" t="n">
         <v>23.9834</v>
@@ -17562,7 +17562,7 @@
         <v>0.201736</v>
       </c>
       <c r="F99" s="5" t="n">
-        <v>40.2728</v>
+        <v>1.9365</v>
       </c>
       <c r="G99" s="5" t="n">
         <v>24.024</v>
@@ -17599,7 +17599,7 @@
         <v>0.2014</v>
       </c>
       <c r="F100" s="5" t="n">
-        <v>40.2076</v>
+        <v>1.93633</v>
       </c>
       <c r="G100" s="5" t="n">
         <v>24.141</v>
@@ -17636,7 +17636,7 @@
         <v>0.202059</v>
       </c>
       <c r="F101" s="5" t="n">
-        <v>40.3952</v>
+        <v>1.93861</v>
       </c>
       <c r="G101" s="5" t="n">
         <v>24.1599</v>
@@ -17673,7 +17673,7 @@
         <v>0.203111</v>
       </c>
       <c r="F102" s="5" t="n">
-        <v>40.6155</v>
+        <v>1.94105</v>
       </c>
       <c r="G102" s="5" t="n">
         <v>24.1514</v>
@@ -17710,7 +17710,7 @@
         <v>0.203518</v>
       </c>
       <c r="F103" s="5" t="n">
-        <v>40.7393</v>
+        <v>1.94203</v>
       </c>
       <c r="G103" s="5" t="n">
         <v>24.1447</v>
@@ -17747,7 +17747,7 @@
         <v>0.203057</v>
       </c>
       <c r="F104" s="5" t="n">
-        <v>40.699</v>
+        <v>1.94204</v>
       </c>
       <c r="G104" s="5" t="n">
         <v>24.1361</v>
@@ -17784,7 +17784,7 @@
         <v>0.203056</v>
       </c>
       <c r="F105" s="5" t="n">
-        <v>40.6968</v>
+        <v>1.94203</v>
       </c>
       <c r="G105" s="5" t="n">
         <v>24.1352</v>
@@ -17821,7 +17821,7 @@
         <v>0.20264</v>
       </c>
       <c r="F106" s="5" t="n">
-        <v>40.4853</v>
+        <v>1.93954</v>
       </c>
       <c r="G106" s="5" t="n">
         <v>24.1495</v>
@@ -17858,7 +17858,7 @@
         <v>0.202514</v>
       </c>
       <c r="F107" s="5" t="n">
-        <v>40.3123</v>
+        <v>1.93828</v>
       </c>
       <c r="G107" s="5" t="n">
         <v>24.1737</v>
@@ -17895,7 +17895,7 @@
         <v>0.20206</v>
       </c>
       <c r="F108" s="5" t="n">
-        <v>40.092</v>
+        <v>1.93816</v>
       </c>
       <c r="G108" s="5" t="n">
         <v>24.148</v>
@@ -17932,7 +17932,7 @@
         <v>0.202201</v>
       </c>
       <c r="F109" s="5" t="n">
-        <v>40.0447</v>
+        <v>1.93808</v>
       </c>
       <c r="G109" s="5" t="n">
         <v>24.1543</v>
@@ -17969,7 +17969,7 @@
         <v>0.202253</v>
       </c>
       <c r="F110" s="5" t="n">
-        <v>40.1454</v>
+        <v>1.9381</v>
       </c>
       <c r="G110" s="5" t="n">
         <v>24.1607</v>
@@ -18006,7 +18006,7 @@
         <v>0.201905</v>
       </c>
       <c r="F111" s="5" t="n">
-        <v>40.1514</v>
+        <v>1.93817</v>
       </c>
       <c r="G111" s="5" t="n">
         <v>24.1587</v>
@@ -18043,7 +18043,7 @@
         <v>0.201985</v>
       </c>
       <c r="F112" s="5" t="n">
-        <v>40.2124</v>
+        <v>1.93817</v>
       </c>
       <c r="G112" s="5" t="n">
         <v>24.1566</v>
@@ -18080,7 +18080,7 @@
         <v>0.202283</v>
       </c>
       <c r="F113" s="5" t="n">
-        <v>40.8695</v>
+        <v>1.93812</v>
       </c>
       <c r="G113" s="5" t="n">
         <v>24.1592</v>
@@ -18117,7 +18117,7 @@
         <v>0.202514</v>
       </c>
       <c r="F114" s="5" t="n">
-        <v>41.1153</v>
+        <v>1.93811</v>
       </c>
       <c r="G114" s="5" t="n">
         <v>24.1576</v>
@@ -18154,7 +18154,7 @@
         <v>0.2031</v>
       </c>
       <c r="F115" s="5" t="n">
-        <v>41.5399</v>
+        <v>1.93814</v>
       </c>
       <c r="G115" s="5" t="n">
         <v>24.1656</v>
@@ -18191,7 +18191,7 @@
         <v>0.20385</v>
       </c>
       <c r="F116" s="5" t="n">
-        <v>41.6093</v>
+        <v>1.9392</v>
       </c>
       <c r="G116" s="5" t="n">
         <v>24.1767</v>
@@ -18228,7 +18228,7 @@
         <v>0.204408</v>
       </c>
       <c r="F117" s="5" t="n">
-        <v>41.4657</v>
+        <v>1.93911</v>
       </c>
       <c r="G117" s="5" t="n">
         <v>24.1509</v>
@@ -18265,7 +18265,7 @@
         <v>0.20368</v>
       </c>
       <c r="F118" s="5" t="n">
-        <v>41.1505</v>
+        <v>1.93751</v>
       </c>
       <c r="G118" s="5" t="n">
         <v>24.1628</v>
@@ -18302,7 +18302,7 @@
         <v>0.203717</v>
       </c>
       <c r="F119" s="5" t="n">
-        <v>41.176</v>
+        <v>1.93759</v>
       </c>
       <c r="G119" s="5" t="n">
         <v>24.161</v>
@@ -18339,7 +18339,7 @@
         <v>0.204071</v>
       </c>
       <c r="F120" s="5" t="n">
-        <v>41.4179</v>
+        <v>1.93762</v>
       </c>
       <c r="G120" s="5" t="n">
         <v>24.1425</v>
@@ -18376,7 +18376,7 @@
         <v>0.204537</v>
       </c>
       <c r="F121" s="5" t="n">
-        <v>41.3683</v>
+        <v>1.94064</v>
       </c>
       <c r="G121" s="5" t="n">
         <v>24.1646</v>
@@ -18413,7 +18413,7 @@
         <v>0.203671</v>
       </c>
       <c r="F122" s="5" t="n">
-        <v>41.1785</v>
+        <v>1.94124</v>
       </c>
       <c r="G122" s="5" t="n">
         <v>23.9988</v>
@@ -18450,7 +18450,7 @@
         <v>0.202692</v>
       </c>
       <c r="F123" s="5" t="n">
-        <v>41.0488</v>
+        <v>1.93959</v>
       </c>
       <c r="G123" s="5" t="n">
         <v>23.9281</v>
@@ -18487,7 +18487,7 @@
         <v>0.20265</v>
       </c>
       <c r="F124" s="5" t="n">
-        <v>40.8933</v>
+        <v>1.93951</v>
       </c>
       <c r="G124" s="5" t="n">
         <v>23.946</v>
@@ -18524,7 +18524,7 @@
         <v>0.20266</v>
       </c>
       <c r="F125" s="5" t="n">
-        <v>41.0037</v>
+        <v>1.94005</v>
       </c>
       <c r="G125" s="5" t="n">
         <v>23.9547</v>
@@ -18561,7 +18561,7 @@
         <v>0.202665</v>
       </c>
       <c r="F126" s="5" t="n">
-        <v>41.0064</v>
+        <v>1.94004</v>
       </c>
       <c r="G126" s="5" t="n">
         <v>23.9537</v>
@@ -18598,7 +18598,7 @@
         <v>0.202845</v>
       </c>
       <c r="F127" s="5" t="n">
-        <v>41.0294</v>
+        <v>1.93906</v>
       </c>
       <c r="G127" s="5" t="n">
         <v>23.9291</v>
@@ -18635,7 +18635,7 @@
         <v>0.203419</v>
       </c>
       <c r="F128" s="5" t="n">
-        <v>41.2648</v>
+        <v>1.93833</v>
       </c>
       <c r="G128" s="5" t="n">
         <v>23.9518</v>
@@ -18672,7 +18672,7 @@
         <v>0.203874</v>
       </c>
       <c r="F129" s="5" t="n">
-        <v>41.3248</v>
+        <v>1.93929</v>
       </c>
       <c r="G129" s="5" t="n">
         <v>23.8874</v>
@@ -18709,7 +18709,7 @@
         <v>0.204135</v>
       </c>
       <c r="F130" s="5" t="n">
-        <v>41.5267</v>
+        <v>1.93944</v>
       </c>
       <c r="G130" s="5" t="n">
         <v>23.91</v>
@@ -18746,7 +18746,7 @@
         <v>0.204404</v>
       </c>
       <c r="F131" s="5" t="n">
-        <v>41.6072</v>
+        <v>1.9391</v>
       </c>
       <c r="G131" s="5" t="n">
         <v>23.8981</v>
@@ -18783,7 +18783,7 @@
         <v>0.204407</v>
       </c>
       <c r="F132" s="5" t="n">
-        <v>41.6095</v>
+        <v>1.93835</v>
       </c>
       <c r="G132" s="5" t="n">
         <v>23.9002</v>
@@ -18820,7 +18820,7 @@
         <v>0.204396</v>
       </c>
       <c r="F133" s="5" t="n">
-        <v>41.6149</v>
+        <v>1.93839</v>
       </c>
       <c r="G133" s="5" t="n">
         <v>23.9015</v>
@@ -18857,7 +18857,7 @@
         <v>0.204193</v>
       </c>
       <c r="F134" s="5" t="n">
-        <v>41.6298</v>
+        <v>1.93632</v>
       </c>
       <c r="G134" s="5" t="n">
         <v>23.9893</v>
@@ -18894,7 +18894,7 @@
         <v>0.204531</v>
       </c>
       <c r="F135" s="5" t="n">
-        <v>41.413</v>
+        <v>1.93332</v>
       </c>
       <c r="G135" s="5" t="n">
         <v>24.0256</v>
@@ -18931,7 +18931,7 @@
         <v>0.205861</v>
       </c>
       <c r="F136" s="5" t="n">
-        <v>41.4496</v>
+        <v>1.93208</v>
       </c>
       <c r="G136" s="5" t="n">
         <v>24.018</v>
@@ -18968,7 +18968,7 @@
         <v>0.206596</v>
       </c>
       <c r="F137" s="5" t="n">
-        <v>41.8262</v>
+        <v>1.93381</v>
       </c>
       <c r="G137" s="5" t="n">
         <v>24.1117</v>
@@ -19005,7 +19005,7 @@
         <v>0.207154</v>
       </c>
       <c r="F138" s="5" t="n">
-        <v>41.9349</v>
+        <v>1.93584</v>
       </c>
       <c r="G138" s="5" t="n">
         <v>24.1449</v>
@@ -19042,7 +19042,7 @@
         <v>0.206955</v>
       </c>
       <c r="F139" s="5" t="n">
-        <v>41.918</v>
+        <v>1.9347</v>
       </c>
       <c r="G139" s="5" t="n">
         <v>24.1003</v>
@@ -19079,7 +19079,7 @@
         <v>0.206977</v>
       </c>
       <c r="F140" s="5" t="n">
-        <v>41.9209</v>
+        <v>1.9348</v>
       </c>
       <c r="G140" s="5" t="n">
         <v>24.1057</v>
@@ -19116,7 +19116,7 @@
         <v>0.207207</v>
       </c>
       <c r="F141" s="5" t="n">
-        <v>41.9623</v>
+        <v>1.93864</v>
       </c>
       <c r="G141" s="5" t="n">
         <v>24.159</v>
@@ -19153,7 +19153,7 @@
         <v>0.208224</v>
       </c>
       <c r="F142" s="5" t="n">
-        <v>41.8397</v>
+        <v>1.93875</v>
       </c>
       <c r="G142" s="5" t="n">
         <v>24.1411</v>
@@ -19190,7 +19190,7 @@
         <v>0.208841</v>
       </c>
       <c r="F143" s="5" t="n">
-        <v>41.8587</v>
+        <v>1.94004</v>
       </c>
       <c r="G143" s="5" t="n">
         <v>24.1321</v>
@@ -19227,7 +19227,7 @@
         <v>0.207911</v>
       </c>
       <c r="F144" s="5" t="n">
-        <v>41.7886</v>
+        <v>1.93867</v>
       </c>
       <c r="G144" s="5" t="n">
         <v>24.1254</v>
@@ -19264,7 +19264,7 @@
         <v>0.207214</v>
       </c>
       <c r="F145" s="5" t="n">
-        <v>41.7196</v>
+        <v>1.93795</v>
       </c>
       <c r="G145" s="5" t="n">
         <v>24.1374</v>
@@ -19301,7 +19301,7 @@
         <v>0.206759</v>
       </c>
       <c r="F146" s="5" t="n">
-        <v>41.7609</v>
+        <v>1.93809</v>
       </c>
       <c r="G146" s="5" t="n">
         <v>24.1275</v>
@@ -19338,7 +19338,7 @@
         <v>0.206775</v>
       </c>
       <c r="F147" s="5" t="n">
-        <v>41.7683</v>
+        <v>1.93809</v>
       </c>
       <c r="G147" s="5" t="n">
         <v>24.1269</v>
@@ -19375,7 +19375,7 @@
         <v>0.20677</v>
       </c>
       <c r="F148" s="5" t="n">
-        <v>41.9267</v>
+        <v>1.93796</v>
       </c>
       <c r="G148" s="5" t="n">
         <v>24.1425</v>
@@ -19412,7 +19412,7 @@
         <v>0.206868</v>
       </c>
       <c r="F149" s="5" t="n">
-        <v>41.9667</v>
+        <v>1.93714</v>
       </c>
       <c r="G149" s="5" t="n">
         <v>24.1052</v>
@@ -19449,7 +19449,7 @@
         <v>0.207312</v>
       </c>
       <c r="F150" s="5" t="n">
-        <v>42.1022</v>
+        <v>1.93671</v>
       </c>
       <c r="G150" s="5" t="n">
         <v>24.1181</v>
@@ -19486,7 +19486,7 @@
         <v>0.20687</v>
       </c>
       <c r="F151" s="5" t="n">
-        <v>42.0913</v>
+        <v>1.9337</v>
       </c>
       <c r="G151" s="5" t="n">
         <v>24.1508</v>
@@ -19523,7 +19523,7 @@
         <v>0.206925</v>
       </c>
       <c r="F152" s="5" t="n">
-        <v>42.0582</v>
+        <v>1.93346</v>
       </c>
       <c r="G152" s="5" t="n">
         <v>24.1501</v>
@@ -19560,7 +19560,7 @@
         <v>0.206561</v>
       </c>
       <c r="F153" s="5" t="n">
-        <v>42.0639</v>
+        <v>1.93271</v>
       </c>
       <c r="G153" s="5" t="n">
         <v>24.1373</v>
@@ -19597,7 +19597,7 @@
         <v>0.206577</v>
       </c>
       <c r="F154" s="5" t="n">
-        <v>42.0645</v>
+        <v>1.93259</v>
       </c>
       <c r="G154" s="5" t="n">
         <v>24.1356</v>
@@ -19634,7 +19634,7 @@
         <v>0.206825</v>
       </c>
       <c r="F155" s="5" t="n">
-        <v>42.1686</v>
+        <v>1.93335</v>
       </c>
       <c r="G155" s="5" t="n">
         <v>24.1277</v>
@@ -19671,7 +19671,7 @@
         <v>0.206981</v>
       </c>
       <c r="F156" s="5" t="n">
-        <v>42.2757</v>
+        <v>1.93463</v>
       </c>
       <c r="G156" s="5" t="n">
         <v>24.114</v>
@@ -19708,7 +19708,7 @@
         <v>0.207687</v>
       </c>
       <c r="F157" s="5" t="n">
-        <v>42.5051</v>
+        <v>1.93505</v>
       </c>
       <c r="G157" s="5" t="n">
         <v>24.0939</v>
@@ -19745,7 +19745,7 @@
         <v>0.208274</v>
       </c>
       <c r="F158" s="5" t="n">
-        <v>42.8615</v>
+        <v>1.93526</v>
       </c>
       <c r="G158" s="5" t="n">
         <v>24.1383</v>
@@ -19782,7 +19782,7 @@
         <v>0.208009</v>
       </c>
       <c r="F159" s="5" t="n">
-        <v>42.6906</v>
+        <v>1.93453</v>
       </c>
       <c r="G159" s="5" t="n">
         <v>24.2945</v>
@@ -19819,7 +19819,7 @@
         <v>0.207775</v>
       </c>
       <c r="F160" s="5" t="n">
-        <v>42.5691</v>
+        <v>1.93417</v>
       </c>
       <c r="G160" s="5" t="n">
         <v>24.3961</v>
@@ -19856,7 +19856,7 @@
         <v>0.207777</v>
       </c>
       <c r="F161" s="5" t="n">
-        <v>42.5732</v>
+        <v>1.93412</v>
       </c>
       <c r="G161" s="5" t="n">
         <v>24.394</v>
@@ -19893,7 +19893,7 @@
         <v>0.207802</v>
       </c>
       <c r="F162" s="5" t="n">
-        <v>42.684</v>
+        <v>1.93388</v>
       </c>
       <c r="G162" s="5" t="n">
         <v>24.2871</v>
@@ -19930,7 +19930,7 @@
         <v>0.207118</v>
       </c>
       <c r="F163" s="5" t="n">
-        <v>42.5628</v>
+        <v>1.93075</v>
       </c>
       <c r="G163" s="5" t="n">
         <v>24.2714</v>
@@ -19967,7 +19967,7 @@
         <v>0.206226</v>
       </c>
       <c r="F164" s="5" t="n">
-        <v>42.5564</v>
+        <v>1.92733</v>
       </c>
       <c r="G164" s="5" t="n">
         <v>24.2851</v>
@@ -20004,7 +20004,7 @@
         <v>0.205594</v>
       </c>
       <c r="F165" s="5" t="n">
-        <v>42.5285</v>
+        <v>1.92681</v>
       </c>
       <c r="G165" s="5" t="n">
         <v>24.3113</v>
@@ -20041,7 +20041,7 @@
         <v>0.205777</v>
       </c>
       <c r="F166" s="5" t="n">
-        <v>42.5327</v>
+        <v>1.92617</v>
       </c>
       <c r="G166" s="5" t="n">
         <v>24.339</v>
@@ -20078,7 +20078,7 @@
         <v>0.205662</v>
       </c>
       <c r="F167" s="5" t="n">
-        <v>42.5154</v>
+        <v>1.92573</v>
       </c>
       <c r="G167" s="5" t="n">
         <v>24.3255</v>
@@ -20115,7 +20115,7 @@
         <v>0.205662</v>
       </c>
       <c r="F168" s="5" t="n">
-        <v>42.5134</v>
+        <v>1.92575</v>
       </c>
       <c r="G168" s="5" t="n">
         <v>24.3238</v>
@@ -20152,7 +20152,7 @@
         <v>0.205776</v>
       </c>
       <c r="F169" s="5" t="n">
-        <v>42.2976</v>
+        <v>1.92554</v>
       </c>
       <c r="G169" s="5" t="n">
         <v>24.3771</v>
@@ -20189,7 +20189,7 @@
         <v>0.206115</v>
       </c>
       <c r="F170" s="5" t="n">
-        <v>42.4269</v>
+        <v>1.92514</v>
       </c>
       <c r="G170" s="5" t="n">
         <v>24.4621</v>
@@ -20226,7 +20226,7 @@
         <v>0.204842</v>
       </c>
       <c r="F171" s="5" t="n">
-        <v>42.3162</v>
+        <v>1.92385</v>
       </c>
       <c r="G171" s="5" t="n">
         <v>24.5361</v>
@@ -20263,7 +20263,7 @@
         <v>0.204034</v>
       </c>
       <c r="F172" s="5" t="n">
-        <v>42.2044</v>
+        <v>1.92424</v>
       </c>
       <c r="G172" s="5" t="n">
         <v>24.4979</v>
@@ -20300,7 +20300,7 @@
         <v>0.204091</v>
       </c>
       <c r="F173" s="5" t="n">
-        <v>42.2209</v>
+        <v>1.92492</v>
       </c>
       <c r="G173" s="5" t="n">
         <v>24.4818</v>
@@ -20337,7 +20337,7 @@
         <v>0.204123</v>
       </c>
       <c r="F174" s="5" t="n">
-        <v>42.2782</v>
+        <v>1.92516</v>
       </c>
       <c r="G174" s="5" t="n">
         <v>24.475</v>
@@ -20374,7 +20374,7 @@
         <v>0.204132</v>
       </c>
       <c r="F175" s="5" t="n">
-        <v>42.2772</v>
+        <v>1.92511</v>
       </c>
       <c r="G175" s="5" t="n">
         <v>24.4746</v>
@@ -20411,7 +20411,7 @@
         <v>0.204266</v>
       </c>
       <c r="F176" s="5" t="n">
-        <v>42.3349</v>
+        <v>1.92471</v>
       </c>
       <c r="G176" s="5" t="n">
         <v>24.5245</v>
@@ -20448,7 +20448,7 @@
         <v>0.204384</v>
       </c>
       <c r="F177" s="5" t="n">
-        <v>42.5705</v>
+        <v>1.92419</v>
       </c>
       <c r="G177" s="5" t="n">
         <v>24.4816</v>
@@ -20485,7 +20485,7 @@
         <v>0.204244</v>
       </c>
       <c r="F178" s="5" t="n">
-        <v>42.6042</v>
+        <v>1.92297</v>
       </c>
       <c r="G178" s="5" t="n">
         <v>24.4715</v>
@@ -20522,7 +20522,7 @@
         <v>0.203312</v>
       </c>
       <c r="F179" s="5" t="n">
-        <v>42.3615</v>
+        <v>1.92226</v>
       </c>
       <c r="G179" s="5" t="n">
         <v>24.5541</v>
@@ -20559,7 +20559,7 @@
         <v>0.203488</v>
       </c>
       <c r="F180" s="5" t="n">
-        <v>42.4153</v>
+        <v>1.92109</v>
       </c>
       <c r="G180" s="5" t="n">
         <v>24.6252</v>
@@ -20596,7 +20596,7 @@
         <v>0.203541</v>
       </c>
       <c r="F181" s="5" t="n">
-        <v>42.4235</v>
+        <v>1.92078</v>
       </c>
       <c r="G181" s="5" t="n">
         <v>24.6502</v>
@@ -20633,7 +20633,7 @@
         <v>0.203542</v>
       </c>
       <c r="F182" s="5" t="n">
-        <v>42.4231</v>
+        <v>1.92075</v>
       </c>
       <c r="G182" s="5" t="n">
         <v>24.6487</v>
@@ -20670,7 +20670,7 @@
         <v>0.203549</v>
       </c>
       <c r="F183" s="5" t="n">
-        <v>42.2598</v>
+        <v>1.91941</v>
       </c>
       <c r="G183" s="5" t="n">
         <v>24.6857</v>
@@ -20707,7 +20707,7 @@
         <v>0.203099</v>
       </c>
       <c r="F184" s="5" t="n">
-        <v>42.1389</v>
+        <v>1.91771</v>
       </c>
       <c r="G184" s="5" t="n">
         <v>24.747</v>
@@ -20744,7 +20744,7 @@
         <v>0.20355</v>
       </c>
       <c r="F185" s="5" t="n">
-        <v>42.2964</v>
+        <v>1.91749</v>
       </c>
       <c r="G185" s="5" t="n">
         <v>24.6294</v>
@@ -20807,14 +20807,14 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Последнее обновление: 18.12.2025 05:39:17</t>
+          <t>Последнее обновление: 18.12.2025 08:12:14</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Валютные пары: HKD/EUR, HKD/AED, HKD/CHF, HKD/GBP, HKD/JPY, HKD/INR, HKD/RUB, HKD/KZT, HKD/HKD, HKD/USD</t>
+          <t>Валютные пары: HKD/EUR, HKD/AED, HKD/CHF, HKD/GBP, HKD/CNY, HKD/INR, HKD/RUB, HKD/KZT, HKD/HKD, HKD/USD</t>
         </is>
       </c>
     </row>
@@ -20847,7 +20847,7 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>HKD/JPY</t>
+          <t>HKD/CNY</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -20895,7 +20895,7 @@
         <v>0.0946842</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.6062</v>
+        <v>0.915036</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>11.019</v>
@@ -20932,7 +20932,7 @@
         <v>0.094709</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18.6119</v>
+        <v>0.915037</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>11.0186</v>
@@ -20969,7 +20969,7 @@
         <v>0.094666</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18.6966</v>
+        <v>0.915084</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>11.0349</v>
@@ -21006,7 +21006,7 @@
         <v>0.09367549999999999</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18.4785</v>
+        <v>0.914015</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>10.9602</v>
@@ -21043,7 +21043,7 @@
         <v>0.09345199999999999</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18.5083</v>
+        <v>0.913698</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>10.954</v>
@@ -21080,7 +21080,7 @@
         <v>0.092809</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18.3956</v>
+        <v>0.91353</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>10.9213</v>
@@ -21117,7 +21117,7 @@
         <v>0.092805</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.4153</v>
+        <v>0.913316</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>10.8918</v>
@@ -21154,7 +21154,7 @@
         <v>0.09282020000000001</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18.4249</v>
+        <v>0.913609</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>10.8791</v>
@@ -21191,7 +21191,7 @@
         <v>0.0928214</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18.4224</v>
+        <v>0.913608</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>10.8802</v>
@@ -21228,7 +21228,7 @@
         <v>0.0928803</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18.3648</v>
+        <v>0.912958</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>10.9075</v>
@@ -21265,7 +21265,7 @@
         <v>0.0926843</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18.2724</v>
+        <v>0.9125450000000001</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>10.9027</v>
@@ -21302,7 +21302,7 @@
         <v>0.0931309</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18.3108</v>
+        <v>0.912766</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>10.9085</v>
@@ -21339,7 +21339,7 @@
         <v>0.0933351</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18.387</v>
+        <v>0.912759</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>10.8837</v>
@@ -21376,7 +21376,7 @@
         <v>0.0932824</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18.402</v>
+        <v>0.912718</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>10.8763</v>
@@ -21413,7 +21413,7 @@
         <v>0.0932707</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18.3995</v>
+        <v>0.912675</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>10.8248</v>
@@ -21450,7 +21450,7 @@
         <v>0.0932713</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18.4002</v>
+        <v>0.912674</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>10.8258</v>
@@ -21487,7 +21487,7 @@
         <v>0.09354460000000001</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18.5282</v>
+        <v>0.913463</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>10.9282</v>
@@ -21524,7 +21524,7 @@
         <v>0.0936589</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18.6519</v>
+        <v>0.913862</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>10.9204</v>
@@ -21561,7 +21561,7 @@
         <v>0.0937376</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18.6755</v>
+        <v>0.914345</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>10.9206</v>
@@ -21598,7 +21598,7 @@
         <v>0.09373919999999999</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18.6301</v>
+        <v>0.914328</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>10.9144</v>
@@ -21635,7 +21635,7 @@
         <v>0.09417929999999999</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18.7375</v>
+        <v>0.91349</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>10.9311</v>
@@ -21672,7 +21672,7 @@
         <v>0.0944043</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>18.7779</v>
+        <v>0.913131</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>10.933</v>
@@ -21709,7 +21709,7 @@
         <v>0.0944064</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18.776</v>
+        <v>0.91313</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>10.933</v>
@@ -21746,7 +21746,7 @@
         <v>0.09461849999999999</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18.7815</v>
+        <v>0.913093</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>10.9418</v>
@@ -21783,7 +21783,7 @@
         <v>0.0949303</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18.8804</v>
+        <v>0.913459</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>10.9428</v>
@@ -21820,7 +21820,7 @@
         <v>0.0950295</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>18.91</v>
+        <v>0.914148</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>10.9442</v>
@@ -21857,7 +21857,7 @@
         <v>0.0950419</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>18.9259</v>
+        <v>0.914706</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>10.9555</v>
@@ -21894,7 +21894,7 @@
         <v>0.09485730000000001</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>18.9363</v>
+        <v>0.914761</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>10.9731</v>
@@ -21931,7 +21931,7 @@
         <v>0.0949956</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>18.961</v>
+        <v>0.914532</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>10.9765</v>
@@ -21968,7 +21968,7 @@
         <v>0.09498959999999999</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>18.9541</v>
+        <v>0.914538</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>10.9765</v>
@@ -22005,7 +22005,7 @@
         <v>0.0946355</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18.8228</v>
+        <v>0.914045</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>10.9855</v>
@@ -22042,7 +22042,7 @@
         <v>0.09437139999999999</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>18.739</v>
+        <v>0.9138269999999999</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>10.9962</v>
@@ -22079,7 +22079,7 @@
         <v>0.0940124</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>18.6726</v>
+        <v>0.91275</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>11.0029</v>
@@ -22116,7 +22116,7 @@
         <v>0.0940479</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>18.6695</v>
+        <v>0.911644</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>11.0044</v>
@@ -22153,7 +22153,7 @@
         <v>0.09465469999999999</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>18.796</v>
+        <v>0.912144</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>11.0202</v>
@@ -22190,7 +22190,7 @@
         <v>0.0947979</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>18.8097</v>
+        <v>0.912353</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>11.0203</v>
@@ -22227,7 +22227,7 @@
         <v>0.0947979</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>18.811</v>
+        <v>0.91235</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>11.0203</v>
@@ -22264,7 +22264,7 @@
         <v>0.09502960000000001</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>18.88</v>
+        <v>0.913153</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>11.0361</v>
@@ -22301,7 +22301,7 @@
         <v>0.09545380000000001</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>18.9154</v>
+        <v>0.914274</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>11.0721</v>
@@ -22338,7 +22338,7 @@
         <v>0.0956467</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>18.9277</v>
+        <v>0.914716</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>11.1376</v>
@@ -22375,7 +22375,7 @@
         <v>0.0962576</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>19.0987</v>
+        <v>0.915834</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>11.1554</v>
@@ -22412,7 +22412,7 @@
         <v>0.0963233</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>19.0111</v>
+        <v>0.917404</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>11.1262</v>
@@ -22449,7 +22449,7 @@
         <v>0.0959247</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>18.7732</v>
+        <v>0.917446</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>11.106</v>
@@ -22486,7 +22486,7 @@
         <v>0.0959208</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>18.771</v>
+        <v>0.917511</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>11.1062</v>
@@ -22523,7 +22523,7 @@
         <v>0.09587420000000001</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>18.7744</v>
+        <v>0.915649</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>11.1619</v>
@@ -22560,7 +22560,7 @@
         <v>0.0958485</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>18.7795</v>
+        <v>0.914868</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>11.1861</v>
@@ -22597,7 +22597,7 @@
         <v>0.0955892</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>18.7806</v>
+        <v>0.915191</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>11.1745</v>
@@ -22634,7 +22634,7 @@
         <v>0.0950737</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>18.7603</v>
+        <v>0.914784</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>11.1549</v>
@@ -22671,7 +22671,7 @@
         <v>0.09475450000000001</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>18.7955</v>
+        <v>0.9148230000000001</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>11.1575</v>
@@ -22708,7 +22708,7 @@
         <v>0.0946651</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>18.8171</v>
+        <v>0.914674</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>11.1671</v>
@@ -22745,7 +22745,7 @@
         <v>0.0946729</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>18.8163</v>
+        <v>0.914678</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>11.1653</v>
@@ -22782,7 +22782,7 @@
         <v>0.0947704</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>18.8291</v>
+        <v>0.915103</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>11.1615</v>
@@ -22819,7 +22819,7 @@
         <v>0.0945633</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>18.8687</v>
+        <v>0.915241</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>11.1636</v>
@@ -22856,7 +22856,7 @@
         <v>0.0940038</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>18.7912</v>
+        <v>0.914203</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>11.1481</v>
@@ -22893,7 +22893,7 @@
         <v>0.0940531</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>18.7571</v>
+        <v>0.914948</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>11.1686</v>
@@ -22930,7 +22930,7 @@
         <v>0.0942663</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>18.797</v>
+        <v>0.917397</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>11.1847</v>
@@ -22967,7 +22967,7 @@
         <v>0.0942224</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>18.7962</v>
+        <v>0.917408</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>11.1791</v>
@@ -23004,7 +23004,7 @@
         <v>0.0942214</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>18.7975</v>
+        <v>0.917425</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>11.1794</v>
@@ -23041,7 +23041,7 @@
         <v>0.0944575</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>18.8708</v>
+        <v>0.918129</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>11.17</v>
@@ -23078,7 +23078,7 @@
         <v>0.09492780000000001</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>18.9301</v>
+        <v>0.920692</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>11.166</v>
@@ -23115,7 +23115,7 @@
         <v>0.09500939999999999</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>18.8694</v>
+        <v>0.91901</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>11.1451</v>
@@ -23152,7 +23152,7 @@
         <v>0.0952238</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>18.9258</v>
+        <v>0.918652</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>11.1581</v>
@@ -23189,7 +23189,7 @@
         <v>0.0950498</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>18.9173</v>
+        <v>0.917987</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>11.1791</v>
@@ -23226,7 +23226,7 @@
         <v>0.09451</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>18.7903</v>
+        <v>0.916692</v>
       </c>
       <c r="G69" s="5" t="n">
         <v>11.1727</v>
@@ -23263,7 +23263,7 @@
         <v>0.094523</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>18.792</v>
+        <v>0.9167</v>
       </c>
       <c r="G70" s="5" t="n">
         <v>11.1726</v>
@@ -23300,7 +23300,7 @@
         <v>0.094885</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>18.8791</v>
+        <v>0.916411</v>
       </c>
       <c r="G71" s="5" t="n">
         <v>11.2031</v>
@@ -23337,7 +23337,7 @@
         <v>0.09513629999999999</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>18.9069</v>
+        <v>0.916937</v>
       </c>
       <c r="G72" s="5" t="n">
         <v>11.236</v>
@@ -23374,7 +23374,7 @@
         <v>0.0953773</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>18.9726</v>
+        <v>0.918929</v>
       </c>
       <c r="G73" s="5" t="n">
         <v>11.2668</v>
@@ -23411,7 +23411,7 @@
         <v>0.09497079999999999</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>18.8692</v>
+        <v>0.91669</v>
       </c>
       <c r="G74" s="5" t="n">
         <v>11.2399</v>
@@ -23448,7 +23448,7 @@
         <v>0.095078</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>18.8619</v>
+        <v>0.915726</v>
       </c>
       <c r="G75" s="5" t="n">
         <v>11.2936</v>
@@ -23485,7 +23485,7 @@
         <v>0.094903</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>18.8531</v>
+        <v>0.914317</v>
       </c>
       <c r="G76" s="5" t="n">
         <v>11.3028</v>
@@ -23522,7 +23522,7 @@
         <v>0.0949107</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>18.8545</v>
+        <v>0.9143520000000001</v>
       </c>
       <c r="G77" s="5" t="n">
         <v>11.3038</v>
@@ -23559,7 +23559,7 @@
         <v>0.0947784</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>18.8726</v>
+        <v>0.914932</v>
       </c>
       <c r="G78" s="5" t="n">
         <v>11.3026</v>
@@ -23596,7 +23596,7 @@
         <v>0.0953792</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>18.9878</v>
+        <v>0.914517</v>
       </c>
       <c r="G79" s="5" t="n">
         <v>11.2823</v>
@@ -23633,7 +23633,7 @@
         <v>0.095557</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>19.0197</v>
+        <v>0.915158</v>
       </c>
       <c r="G80" s="5" t="n">
         <v>11.2846</v>
@@ -23670,7 +23670,7 @@
         <v>0.0954251</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>19.0203</v>
+        <v>0.91551</v>
       </c>
       <c r="G81" s="5" t="n">
         <v>11.3005</v>
@@ -23707,7 +23707,7 @@
         <v>0.0950455</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>18.9418</v>
+        <v>0.91506</v>
       </c>
       <c r="G82" s="5" t="n">
         <v>11.3056</v>
@@ -23744,7 +23744,7 @@
         <v>0.0948823</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>18.8975</v>
+        <v>0.914534</v>
       </c>
       <c r="G83" s="5" t="n">
         <v>11.3074</v>
@@ -23781,7 +23781,7 @@
         <v>0.0948976</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>18.9108</v>
+        <v>0.914562</v>
       </c>
       <c r="G84" s="5" t="n">
         <v>11.3073</v>
@@ -23818,7 +23818,7 @@
         <v>0.09485250000000001</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>18.959</v>
+        <v>0.914906</v>
       </c>
       <c r="G85" s="5" t="n">
         <v>11.2935</v>
@@ -23855,7 +23855,7 @@
         <v>0.0947327</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>18.8871</v>
+        <v>0.914731</v>
       </c>
       <c r="G86" s="5" t="n">
         <v>11.3158</v>
@@ -23892,7 +23892,7 @@
         <v>0.0948398</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>18.9216</v>
+        <v>0.914211</v>
       </c>
       <c r="G87" s="5" t="n">
         <v>11.31</v>
@@ -23929,7 +23929,7 @@
         <v>0.0947822</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>18.928</v>
+        <v>0.9141089999999999</v>
       </c>
       <c r="G88" s="5" t="n">
         <v>11.3333</v>
@@ -23966,7 +23966,7 @@
         <v>0.09477149999999999</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>18.9656</v>
+        <v>0.914987</v>
       </c>
       <c r="G89" s="5" t="n">
         <v>11.3441</v>
@@ -24003,7 +24003,7 @@
         <v>0.0947378</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>18.9745</v>
+        <v>0.915469</v>
       </c>
       <c r="G90" s="5" t="n">
         <v>11.3444</v>
@@ -24040,7 +24040,7 @@
         <v>0.0947426</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>18.9748</v>
+        <v>0.915478</v>
       </c>
       <c r="G91" s="5" t="n">
         <v>11.3441</v>
@@ -24077,7 +24077,7 @@
         <v>0.0946036</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>18.9505</v>
+        <v>0.915534</v>
       </c>
       <c r="G92" s="5" t="n">
         <v>11.3366</v>
@@ -24114,7 +24114,7 @@
         <v>0.0942355</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>18.8673</v>
+        <v>0.9146030000000001</v>
       </c>
       <c r="G93" s="5" t="n">
         <v>11.312</v>
@@ -24151,7 +24151,7 @@
         <v>0.0942094</v>
       </c>
       <c r="F94" s="5" t="n">
-        <v>18.835</v>
+        <v>0.913983</v>
       </c>
       <c r="G94" s="5" t="n">
         <v>11.2911</v>
@@ -24188,7 +24188,7 @@
         <v>0.0945957</v>
       </c>
       <c r="F95" s="5" t="n">
-        <v>18.9709</v>
+        <v>0.913876</v>
       </c>
       <c r="G95" s="5" t="n">
         <v>11.3282</v>
@@ -24225,7 +24225,7 @@
         <v>0.0952552</v>
       </c>
       <c r="F96" s="5" t="n">
-        <v>19.0181</v>
+        <v>0.914798</v>
       </c>
       <c r="G96" s="5" t="n">
         <v>11.3359</v>
@@ -24262,7 +24262,7 @@
         <v>0.0954483</v>
       </c>
       <c r="F97" s="5" t="n">
-        <v>19.0289</v>
+        <v>0.9149620000000001</v>
       </c>
       <c r="G97" s="5" t="n">
         <v>11.3309</v>
@@ -24299,7 +24299,7 @@
         <v>0.09544999999999999</v>
       </c>
       <c r="F98" s="5" t="n">
-        <v>19.029</v>
+        <v>0.91497</v>
       </c>
       <c r="G98" s="5" t="n">
         <v>11.3309</v>
@@ -24336,7 +24336,7 @@
         <v>0.0953705</v>
       </c>
       <c r="F99" s="5" t="n">
-        <v>19.0389</v>
+        <v>0.91548</v>
       </c>
       <c r="G99" s="5" t="n">
         <v>11.3574</v>
@@ -24373,7 +24373,7 @@
         <v>0.0951535</v>
       </c>
       <c r="F100" s="5" t="n">
-        <v>18.9965</v>
+        <v>0.914839</v>
       </c>
       <c r="G100" s="5" t="n">
         <v>11.4057</v>
@@ -24410,7 +24410,7 @@
         <v>0.09543219999999999</v>
       </c>
       <c r="F101" s="5" t="n">
-        <v>19.0786</v>
+        <v>0.915606</v>
       </c>
       <c r="G101" s="5" t="n">
         <v>11.4107</v>
@@ -24447,7 +24447,7 @@
         <v>0.0959028</v>
       </c>
       <c r="F102" s="5" t="n">
-        <v>19.1774</v>
+        <v>0.916503</v>
       </c>
       <c r="G102" s="5" t="n">
         <v>11.4035</v>
@@ -24484,7 +24484,7 @@
         <v>0.0960835</v>
       </c>
       <c r="F103" s="5" t="n">
-        <v>19.2335</v>
+        <v>0.9168539999999999</v>
       </c>
       <c r="G103" s="5" t="n">
         <v>11.399</v>
@@ -24521,7 +24521,7 @@
         <v>0.0958697</v>
       </c>
       <c r="F104" s="5" t="n">
-        <v>19.2153</v>
+        <v>0.916902</v>
       </c>
       <c r="G104" s="5" t="n">
         <v>11.3955</v>
@@ -24558,7 +24558,7 @@
         <v>0.09586890000000001</v>
       </c>
       <c r="F105" s="5" t="n">
-        <v>19.2142</v>
+        <v>0.916892</v>
       </c>
       <c r="G105" s="5" t="n">
         <v>11.395</v>
@@ -24595,7 +24595,7 @@
         <v>0.0956545</v>
       </c>
       <c r="F106" s="5" t="n">
-        <v>19.1107</v>
+        <v>0.91554</v>
       </c>
       <c r="G106" s="5" t="n">
         <v>11.3996</v>
@@ -24632,7 +24632,7 @@
         <v>0.0955963</v>
       </c>
       <c r="F107" s="5" t="n">
-        <v>19.0293</v>
+        <v>0.914963</v>
       </c>
       <c r="G107" s="5" t="n">
         <v>11.4112</v>
@@ -24669,7 +24669,7 @@
         <v>0.0953751</v>
       </c>
       <c r="F108" s="5" t="n">
-        <v>18.924</v>
+        <v>0.914837</v>
       </c>
       <c r="G108" s="5" t="n">
         <v>11.3982</v>
@@ -24706,7 +24706,7 @@
         <v>0.0954468</v>
       </c>
       <c r="F109" s="5" t="n">
-        <v>18.9026</v>
+        <v>0.914849</v>
       </c>
       <c r="G109" s="5" t="n">
         <v>11.4018</v>
@@ -24743,7 +24743,7 @@
         <v>0.0954716</v>
       </c>
       <c r="F110" s="5" t="n">
-        <v>18.9503</v>
+        <v>0.914862</v>
       </c>
       <c r="G110" s="5" t="n">
         <v>11.4048</v>
@@ -24780,7 +24780,7 @@
         <v>0.0952978</v>
       </c>
       <c r="F111" s="5" t="n">
-        <v>18.9511</v>
+        <v>0.914802</v>
       </c>
       <c r="G111" s="5" t="n">
         <v>11.4027</v>
@@ -24817,7 +24817,7 @@
         <v>0.09533609999999999</v>
       </c>
       <c r="F112" s="5" t="n">
-        <v>18.98</v>
+        <v>0.914805</v>
       </c>
       <c r="G112" s="5" t="n">
         <v>11.4018</v>
@@ -24854,7 +24854,7 @@
         <v>0.09547650000000001</v>
       </c>
       <c r="F113" s="5" t="n">
-        <v>19.2902</v>
+        <v>0.914782</v>
       </c>
       <c r="G113" s="5" t="n">
         <v>11.403</v>
@@ -24891,7 +24891,7 @@
         <v>0.0955767</v>
       </c>
       <c r="F114" s="5" t="n">
-        <v>19.4044</v>
+        <v>0.914696</v>
       </c>
       <c r="G114" s="5" t="n">
         <v>11.4012</v>
@@ -24928,7 +24928,7 @@
         <v>0.0958558</v>
       </c>
       <c r="F115" s="5" t="n">
-        <v>19.6053</v>
+        <v>0.914732</v>
       </c>
       <c r="G115" s="5" t="n">
         <v>11.4053</v>
@@ -24965,7 +24965,7 @@
         <v>0.09623379999999999</v>
       </c>
       <c r="F116" s="5" t="n">
-        <v>19.643</v>
+        <v>0.9154640000000001</v>
       </c>
       <c r="G116" s="5" t="n">
         <v>11.4134</v>
@@ -25002,7 +25002,7 @@
         <v>0.096485</v>
       </c>
       <c r="F117" s="5" t="n">
-        <v>19.5727</v>
+        <v>0.915304</v>
       </c>
       <c r="G117" s="5" t="n">
         <v>11.3998</v>
@@ -25039,7 +25039,7 @@
         <v>0.0961209</v>
       </c>
       <c r="F118" s="5" t="n">
-        <v>19.4198</v>
+        <v>0.914353</v>
       </c>
       <c r="G118" s="5" t="n">
         <v>11.4029</v>
@@ -25076,7 +25076,7 @@
         <v>0.0961393</v>
       </c>
       <c r="F119" s="5" t="n">
-        <v>19.4319</v>
+        <v>0.914399</v>
       </c>
       <c r="G119" s="5" t="n">
         <v>11.4022</v>
@@ -25113,7 +25113,7 @@
         <v>0.0963618</v>
       </c>
       <c r="F120" s="5" t="n">
-        <v>19.5574</v>
+        <v>0.914942</v>
       </c>
       <c r="G120" s="5" t="n">
         <v>11.4</v>
@@ -25150,7 +25150,7 @@
         <v>0.0966268</v>
       </c>
       <c r="F121" s="5" t="n">
-        <v>19.5431</v>
+        <v>0.91679</v>
       </c>
       <c r="G121" s="5" t="n">
         <v>11.4158</v>
@@ -25187,7 +25187,7 @@
         <v>0.09622269999999999</v>
       </c>
       <c r="F122" s="5" t="n">
-        <v>19.4544</v>
+        <v>0.917123</v>
       </c>
       <c r="G122" s="5" t="n">
         <v>11.338</v>
@@ -25224,7 +25224,7 @@
         <v>0.0957971</v>
       </c>
       <c r="F123" s="5" t="n">
-        <v>19.4007</v>
+        <v>0.916698</v>
       </c>
       <c r="G123" s="5" t="n">
         <v>11.309</v>
@@ -25261,7 +25261,7 @@
         <v>0.09582599999999999</v>
       </c>
       <c r="F124" s="5" t="n">
-        <v>19.337</v>
+        <v>0.917122</v>
       </c>
       <c r="G124" s="5" t="n">
         <v>11.3232</v>
@@ -25298,7 +25298,7 @@
         <v>0.0958174</v>
       </c>
       <c r="F125" s="5" t="n">
-        <v>19.3865</v>
+        <v>0.917255</v>
       </c>
       <c r="G125" s="5" t="n">
         <v>11.3258</v>
@@ -25335,7 +25335,7 @@
         <v>0.09582060000000001</v>
       </c>
       <c r="F126" s="5" t="n">
-        <v>19.388</v>
+        <v>0.917259</v>
       </c>
       <c r="G126" s="5" t="n">
         <v>11.3254</v>
@@ -25372,7 +25372,7 @@
         <v>0.0959153</v>
       </c>
       <c r="F127" s="5" t="n">
-        <v>19.4008</v>
+        <v>0.916885</v>
       </c>
       <c r="G127" s="5" t="n">
         <v>11.3149</v>
@@ -25409,7 +25409,7 @@
         <v>0.09616329999999999</v>
       </c>
       <c r="F128" s="5" t="n">
-        <v>19.5073</v>
+        <v>0.916317</v>
       </c>
       <c r="G128" s="5" t="n">
         <v>11.3229</v>
@@ -25446,7 +25446,7 @@
         <v>0.0963676</v>
       </c>
       <c r="F129" s="5" t="n">
-        <v>19.5335</v>
+        <v>0.916665</v>
       </c>
       <c r="G129" s="5" t="n">
         <v>11.2911</v>
@@ -25483,7 +25483,7 @@
         <v>0.09648420000000001</v>
       </c>
       <c r="F130" s="5" t="n">
-        <v>19.6276</v>
+        <v>0.916677</v>
       </c>
       <c r="G130" s="5" t="n">
         <v>11.301</v>
@@ -25520,7 +25520,7 @@
         <v>0.0966269</v>
       </c>
       <c r="F131" s="5" t="n">
-        <v>19.6687</v>
+        <v>0.916659</v>
       </c>
       <c r="G131" s="5" t="n">
         <v>11.2972</v>
@@ -25557,7 +25557,7 @@
         <v>0.09664250000000001</v>
       </c>
       <c r="F132" s="5" t="n">
-        <v>19.6727</v>
+        <v>0.916444</v>
       </c>
       <c r="G132" s="5" t="n">
         <v>11.2999</v>
@@ -25594,7 +25594,7 @@
         <v>0.0966359</v>
       </c>
       <c r="F133" s="5" t="n">
-        <v>19.6751</v>
+        <v>0.916447</v>
       </c>
       <c r="G133" s="5" t="n">
         <v>11.3004</v>
@@ -25631,7 +25631,7 @@
         <v>0.0965597</v>
       </c>
       <c r="F134" s="5" t="n">
-        <v>19.6861</v>
+        <v>0.915658</v>
       </c>
       <c r="G134" s="5" t="n">
         <v>11.3442</v>
@@ -25668,7 +25668,7 @@
         <v>0.09670339999999999</v>
       </c>
       <c r="F135" s="5" t="n">
-        <v>19.5804</v>
+        <v>0.914084</v>
       </c>
       <c r="G135" s="5" t="n">
         <v>11.3595</v>
@@ -25705,7 +25705,7 @@
         <v>0.0973131</v>
       </c>
       <c r="F136" s="5" t="n">
-        <v>19.5938</v>
+        <v>0.913318</v>
       </c>
       <c r="G136" s="5" t="n">
         <v>11.3536</v>
@@ -25742,7 +25742,7 @@
         <v>0.097673</v>
       </c>
       <c r="F137" s="5" t="n">
-        <v>19.7742</v>
+        <v>0.914251</v>
       </c>
       <c r="G137" s="5" t="n">
         <v>11.3993</v>
@@ -25779,7 +25779,7 @@
         <v>0.0979261</v>
       </c>
       <c r="F138" s="5" t="n">
-        <v>19.8235</v>
+        <v>0.915115</v>
       </c>
       <c r="G138" s="5" t="n">
         <v>11.4138</v>
@@ -25816,7 +25816,7 @@
         <v>0.0978218</v>
       </c>
       <c r="F139" s="5" t="n">
-        <v>19.8134</v>
+        <v>0.914478</v>
       </c>
       <c r="G139" s="5" t="n">
         <v>11.3915</v>
@@ -25853,7 +25853,7 @@
         <v>0.0978311</v>
       </c>
       <c r="F140" s="5" t="n">
-        <v>19.8146</v>
+        <v>0.914516</v>
       </c>
       <c r="G140" s="5" t="n">
         <v>11.394</v>
@@ -25890,7 +25890,7 @@
         <v>0.0979266</v>
       </c>
       <c r="F141" s="5" t="n">
-        <v>19.8315</v>
+        <v>0.916204</v>
       </c>
       <c r="G141" s="5" t="n">
         <v>11.4176</v>
@@ -25927,7 +25927,7 @@
         <v>0.0983898</v>
       </c>
       <c r="F142" s="5" t="n">
-        <v>19.77</v>
+        <v>0.916096</v>
       </c>
       <c r="G142" s="5" t="n">
         <v>11.4071</v>
@@ -25964,7 +25964,7 @@
         <v>0.0986664</v>
       </c>
       <c r="F143" s="5" t="n">
-        <v>19.776</v>
+        <v>0.916569</v>
       </c>
       <c r="G143" s="5" t="n">
         <v>11.4011</v>
@@ -26001,7 +26001,7 @@
         <v>0.0982288</v>
       </c>
       <c r="F144" s="5" t="n">
-        <v>19.7433</v>
+        <v>0.915936</v>
       </c>
       <c r="G144" s="5" t="n">
         <v>11.3982</v>
@@ -26038,7 +26038,7 @@
         <v>0.0978808</v>
       </c>
       <c r="F145" s="5" t="n">
-        <v>19.707</v>
+        <v>0.915421</v>
       </c>
       <c r="G145" s="5" t="n">
         <v>11.4017</v>
@@ -26075,7 +26075,7 @@
         <v>0.0976499</v>
       </c>
       <c r="F146" s="5" t="n">
-        <v>19.7232</v>
+        <v>0.915338</v>
       </c>
       <c r="G146" s="5" t="n">
         <v>11.3951</v>
@@ -26112,7 +26112,7 @@
         <v>0.0976577</v>
       </c>
       <c r="F147" s="5" t="n">
-        <v>19.7267</v>
+        <v>0.91534</v>
       </c>
       <c r="G147" s="5" t="n">
         <v>11.3949</v>
@@ -26149,7 +26149,7 @@
         <v>0.0976957</v>
       </c>
       <c r="F148" s="5" t="n">
-        <v>19.8097</v>
+        <v>0.915658</v>
       </c>
       <c r="G148" s="5" t="n">
         <v>11.407</v>
@@ -26186,7 +26186,7 @@
         <v>0.09776410000000001</v>
       </c>
       <c r="F149" s="5" t="n">
-        <v>19.8331</v>
+        <v>0.915473</v>
       </c>
       <c r="G149" s="5" t="n">
         <v>11.3919</v>
@@ -26223,7 +26223,7 @@
         <v>0.09799389999999999</v>
       </c>
       <c r="F150" s="5" t="n">
-        <v>19.9012</v>
+        <v>0.915458</v>
       </c>
       <c r="G150" s="5" t="n">
         <v>11.4003</v>
@@ -26260,7 +26260,7 @@
         <v>0.0977886</v>
       </c>
       <c r="F151" s="5" t="n">
-        <v>19.8968</v>
+        <v>0.91407</v>
       </c>
       <c r="G151" s="5" t="n">
         <v>11.4162</v>
@@ -26297,7 +26297,7 @@
         <v>0.0978014</v>
       </c>
       <c r="F152" s="5" t="n">
-        <v>19.8785</v>
+        <v>0.913836</v>
       </c>
       <c r="G152" s="5" t="n">
         <v>11.4144</v>
@@ -26334,7 +26334,7 @@
         <v>0.0976036</v>
       </c>
       <c r="F153" s="5" t="n">
-        <v>19.8759</v>
+        <v>0.913236</v>
       </c>
       <c r="G153" s="5" t="n">
         <v>11.4053</v>
@@ -26371,7 +26371,7 @@
         <v>0.097611</v>
       </c>
       <c r="F154" s="5" t="n">
-        <v>19.8762</v>
+        <v>0.913183</v>
       </c>
       <c r="G154" s="5" t="n">
         <v>11.4045</v>
@@ -26408,7 +26408,7 @@
         <v>0.0977314</v>
       </c>
       <c r="F155" s="5" t="n">
-        <v>19.926</v>
+        <v>0.913569</v>
       </c>
       <c r="G155" s="5" t="n">
         <v>11.4011</v>
@@ -26445,7 +26445,7 @@
         <v>0.09768930000000001</v>
       </c>
       <c r="F156" s="5" t="n">
-        <v>19.953</v>
+        <v>0.913095</v>
       </c>
       <c r="G156" s="5" t="n">
         <v>11.3811</v>
@@ -26482,7 +26482,7 @@
         <v>0.0979406</v>
       </c>
       <c r="F157" s="5" t="n">
-        <v>20.0445</v>
+        <v>0.912528</v>
       </c>
       <c r="G157" s="5" t="n">
         <v>11.3622</v>
@@ -26519,7 +26519,7 @@
         <v>0.0982759</v>
       </c>
       <c r="F158" s="5" t="n">
-        <v>20.2246</v>
+        <v>0.913168</v>
       </c>
       <c r="G158" s="5" t="n">
         <v>11.3899</v>
@@ -26556,7 +26556,7 @@
         <v>0.0981438</v>
       </c>
       <c r="F159" s="5" t="n">
-        <v>20.1424</v>
+        <v>0.912755</v>
       </c>
       <c r="G159" s="5" t="n">
         <v>11.4627</v>
@@ -26593,7 +26593,7 @@
         <v>0.0980352</v>
       </c>
       <c r="F160" s="5" t="n">
-        <v>20.0855</v>
+        <v>0.912605</v>
       </c>
       <c r="G160" s="5" t="n">
         <v>11.5109</v>
@@ -26630,7 +26630,7 @@
         <v>0.09803530000000001</v>
       </c>
       <c r="F161" s="5" t="n">
-        <v>20.0873</v>
+        <v>0.912575</v>
       </c>
       <c r="G161" s="5" t="n">
         <v>11.5098</v>
@@ -26667,7 +26667,7 @@
         <v>0.0980771</v>
       </c>
       <c r="F162" s="5" t="n">
-        <v>20.1457</v>
+        <v>0.912739</v>
       </c>
       <c r="G162" s="5" t="n">
         <v>11.4629</v>
@@ -26704,7 +26704,7 @@
         <v>0.0978248</v>
       </c>
       <c r="F163" s="5" t="n">
-        <v>20.103</v>
+        <v>0.911921</v>
       </c>
       <c r="G163" s="5" t="n">
         <v>11.4637</v>
@@ -26741,7 +26741,7 @@
         <v>0.09739399999999999</v>
       </c>
       <c r="F164" s="5" t="n">
-        <v>20.0981</v>
+        <v>0.910218</v>
       </c>
       <c r="G164" s="5" t="n">
         <v>11.4691</v>
@@ -26778,7 +26778,7 @@
         <v>0.0970876</v>
       </c>
       <c r="F165" s="5" t="n">
-        <v>20.0832</v>
+        <v>0.909895</v>
       </c>
       <c r="G165" s="5" t="n">
         <v>11.4805</v>
@@ -26815,7 +26815,7 @@
         <v>0.09710290000000001</v>
       </c>
       <c r="F166" s="5" t="n">
-        <v>20.0705</v>
+        <v>0.908928</v>
       </c>
       <c r="G166" s="5" t="n">
         <v>11.4852</v>
@@ -26852,7 +26852,7 @@
         <v>0.09701369999999999</v>
       </c>
       <c r="F167" s="5" t="n">
-        <v>20.0551</v>
+        <v>0.908395</v>
       </c>
       <c r="G167" s="5" t="n">
         <v>11.4747</v>
@@ -26889,7 +26889,7 @@
         <v>0.09701460000000001</v>
       </c>
       <c r="F168" s="5" t="n">
-        <v>20.0543</v>
+        <v>0.9084100000000001</v>
       </c>
       <c r="G168" s="5" t="n">
         <v>11.4739</v>
@@ -26926,7 +26926,7 @@
         <v>0.0970515</v>
       </c>
       <c r="F169" s="5" t="n">
-        <v>19.9492</v>
+        <v>0.908157</v>
       </c>
       <c r="G169" s="5" t="n">
         <v>11.4972</v>
@@ -26963,7 +26963,7 @@
         <v>0.09723229999999999</v>
       </c>
       <c r="F170" s="5" t="n">
-        <v>20.0144</v>
+        <v>0.908158</v>
       </c>
       <c r="G170" s="5" t="n">
         <v>11.5397</v>
@@ -27000,7 +27000,7 @@
         <v>0.09666089999999999</v>
       </c>
       <c r="F171" s="5" t="n">
-        <v>19.9682</v>
+        <v>0.907825</v>
       </c>
       <c r="G171" s="5" t="n">
         <v>11.5781</v>
@@ -27037,7 +27037,7 @@
         <v>0.0962928</v>
       </c>
       <c r="F172" s="5" t="n">
-        <v>19.9182</v>
+        <v>0.908134</v>
       </c>
       <c r="G172" s="5" t="n">
         <v>11.5617</v>
@@ -27074,7 +27074,7 @@
         <v>0.0963012</v>
       </c>
       <c r="F173" s="5" t="n">
-        <v>19.9221</v>
+        <v>0.908283</v>
       </c>
       <c r="G173" s="5" t="n">
         <v>11.5518</v>
@@ -27111,7 +27111,7 @@
         <v>0.0962995</v>
       </c>
       <c r="F174" s="5" t="n">
-        <v>19.9457</v>
+        <v>0.908235</v>
       </c>
       <c r="G174" s="5" t="n">
         <v>11.5466</v>
@@ -27148,7 +27148,7 @@
         <v>0.096304</v>
       </c>
       <c r="F175" s="5" t="n">
-        <v>19.9453</v>
+        <v>0.908214</v>
       </c>
       <c r="G175" s="5" t="n">
         <v>11.5465</v>
@@ -27185,7 +27185,7 @@
         <v>0.0964305</v>
       </c>
       <c r="F176" s="5" t="n">
-        <v>19.9856</v>
+        <v>0.908621</v>
       </c>
       <c r="G176" s="5" t="n">
         <v>11.5776</v>
@@ -27222,7 +27222,7 @@
         <v>0.0964807</v>
       </c>
       <c r="F177" s="5" t="n">
-        <v>20.0957</v>
+        <v>0.908325</v>
       </c>
       <c r="G177" s="5" t="n">
         <v>11.5567</v>
@@ -27259,7 +27259,7 @@
         <v>0.0964105</v>
       </c>
       <c r="F178" s="5" t="n">
-        <v>20.1107</v>
+        <v>0.907712</v>
       </c>
       <c r="G178" s="5" t="n">
         <v>11.5514</v>
@@ -27296,7 +27296,7 @@
         <v>0.0959743</v>
       </c>
       <c r="F179" s="5" t="n">
-        <v>19.9969</v>
+        <v>0.907408</v>
       </c>
       <c r="G179" s="5" t="n">
         <v>11.5909</v>
@@ -27333,7 +27333,7 @@
         <v>0.0960184</v>
       </c>
       <c r="F180" s="5" t="n">
-        <v>20.0142</v>
+        <v>0.906491</v>
       </c>
       <c r="G180" s="5" t="n">
         <v>11.6197</v>
@@ -27370,7 +27370,7 @@
         <v>0.0960319</v>
       </c>
       <c r="F181" s="5" t="n">
-        <v>20.0157</v>
+        <v>0.906236</v>
       </c>
       <c r="G181" s="5" t="n">
         <v>11.6301</v>
@@ -27407,7 +27407,7 @@
         <v>0.0960321</v>
       </c>
       <c r="F182" s="5" t="n">
-        <v>20.0154</v>
+        <v>0.906219</v>
       </c>
       <c r="G182" s="5" t="n">
         <v>11.6294</v>
@@ -27444,7 +27444,7 @@
         <v>0.0960715</v>
       </c>
       <c r="F183" s="5" t="n">
-        <v>19.9459</v>
+        <v>0.905925</v>
       </c>
       <c r="G183" s="5" t="n">
         <v>11.6512</v>
@@ -27481,7 +27481,7 @@
         <v>0.0958965</v>
       </c>
       <c r="F184" s="5" t="n">
-        <v>19.8966</v>
+        <v>0.905481</v>
       </c>
       <c r="G184" s="5" t="n">
         <v>11.6847</v>
@@ -27518,7 +27518,7 @@
         <v>0.0961084</v>
       </c>
       <c r="F185" s="5" t="n">
-        <v>19.9707</v>
+        <v>0.905366</v>
       </c>
       <c r="G185" s="5" t="n">
         <v>11.6291</v>
@@ -27581,14 +27581,14 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Последнее обновление: 18.12.2025 05:38:53</t>
+          <t>Последнее обновление: 18.12.2025 08:11:52</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Валютные пары: GBP/EUR, GBP/AED, GBP/CHF, GBP/GBP, GBP/JPY, GBP/INR, GBP/RUB, GBP/KZT, GBP/HKD, GBP/USD</t>
+          <t>Валютные пары: GBP/EUR, GBP/AED, GBP/CHF, GBP/GBP, GBP/CNY, GBP/INR, GBP/RUB, GBP/KZT, GBP/HKD, GBP/USD</t>
         </is>
       </c>
     </row>
@@ -27620,7 +27620,7 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>GBP/JPY</t>
+          <t>GBP/CNY</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -27668,7 +27668,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>196.433</v>
+        <v>9.657679999999999</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>116.299</v>
@@ -27705,7 +27705,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>196.442</v>
+        <v>9.65544</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>116.268</v>
@@ -27742,7 +27742,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>197.469</v>
+        <v>9.664680000000001</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>116.545</v>
@@ -27779,7 +27779,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>197.231</v>
+        <v>9.75553</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>116.981</v>
@@ -27816,7 +27816,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>198.026</v>
+        <v>9.775600000000001</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>117.196</v>
@@ -27853,7 +27853,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>198.182</v>
+        <v>9.84141</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>117.655</v>
@@ -27890,7 +27890,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>198.401</v>
+        <v>9.839410000000001</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>117.341</v>
@@ -27927,7 +27927,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>198.42</v>
+        <v>9.83812</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>117.15</v>
@@ -27964,7 +27964,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>198.389</v>
+        <v>9.83799</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>117.161</v>
@@ -28001,7 +28001,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>197.698</v>
+        <v>9.827769999999999</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>117.416</v>
@@ -28038,7 +28038,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>197.123</v>
+        <v>9.84423</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>117.615</v>
@@ -28075,7 +28075,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196.588</v>
+        <v>9.79936</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>117.113</v>
@@ -28112,7 +28112,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>196.976</v>
+        <v>9.777889999999999</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>116.591</v>
@@ -28149,7 +28149,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>197.222</v>
+        <v>9.78138</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>116.559</v>
@@ -28186,7 +28186,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>197.006</v>
+        <v>9.770899999999999</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>115.888</v>
@@ -28223,7 +28223,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>197.033</v>
+        <v>9.771940000000001</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>115.911</v>
@@ -28260,7 +28260,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>198.042</v>
+        <v>9.763389999999999</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>116.804</v>
@@ -28297,7 +28297,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>199.119</v>
+        <v>9.75567</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>116.578</v>
@@ -28334,7 +28334,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>199.207</v>
+        <v>9.752660000000001</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>116.482</v>
@@ -28371,7 +28371,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>198.719</v>
+        <v>9.75231</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>116.414</v>
@@ -28408,7 +28408,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>198.931</v>
+        <v>9.69764</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>116.045</v>
@@ -28445,7 +28445,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>198.858</v>
+        <v>9.66769</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>115.752</v>
@@ -28482,7 +28482,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>198.831</v>
+        <v>9.6676</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>115.751</v>
@@ -28519,7 +28519,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>198.471</v>
+        <v>9.648680000000001</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>115.622</v>
@@ -28556,7 +28556,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>198.861</v>
+        <v>9.620889999999999</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>115.254</v>
@@ -28593,7 +28593,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>198.964</v>
+        <v>9.617979999999999</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>115.146</v>
@@ -28630,7 +28630,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>199.108</v>
+        <v>9.6227</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>115.252</v>
@@ -28667,7 +28667,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>199.601</v>
+        <v>9.64166</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>115.657</v>
@@ -28704,7 +28704,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>199.504</v>
+        <v>9.62172</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>115.483</v>
@@ -28741,7 +28741,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>199.446</v>
+        <v>9.622400000000001</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>115.491</v>
@@ -28778,7 +28778,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>198.869</v>
+        <v>9.65686</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>116.062</v>
@@ -28815,7 +28815,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>198.541</v>
+        <v>9.681710000000001</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>116.501</v>
@@ -28852,7 +28852,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>198.593</v>
+        <v>9.707269999999999</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>117.018</v>
@@ -28889,7 +28889,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>198.486</v>
+        <v>9.69183</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>116.99</v>
@@ -28926,7 +28926,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>198.552</v>
+        <v>9.635020000000001</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>116.407</v>
@@ -28963,7 +28963,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>198.389</v>
+        <v>9.62154</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>116.218</v>
@@ -29000,7 +29000,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>198.4</v>
+        <v>9.621510000000001</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>116.218</v>
@@ -29037,7 +29037,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>198.649</v>
+        <v>9.607609999999999</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>116.115</v>
@@ -29074,7 +29074,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>198.135</v>
+        <v>9.57647</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>115.974</v>
@@ -29111,7 +29111,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>197.862</v>
+        <v>9.56184</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>116.425</v>
@@ -29148,7 +29148,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>198.384</v>
+        <v>9.512829999999999</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>115.872</v>
@@ -29185,7 +29185,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>197.335</v>
+        <v>9.522740000000001</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>115.491</v>
@@ -29222,7 +29222,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>195.638</v>
+        <v>9.56213</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>115.753</v>
@@ -29259,7 +29259,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>195.622</v>
+        <v>9.56288</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>115.756</v>
@@ -29296,7 +29296,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>195.797</v>
+        <v>9.548920000000001</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>116.403</v>
@@ -29333,7 +29333,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>195.904</v>
+        <v>9.543340000000001</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>116.687</v>
@@ -29370,7 +29370,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>196.443</v>
+        <v>9.572520000000001</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>116.88</v>
@@ -29407,7 +29407,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>197.3</v>
+        <v>9.620279999999999</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>117.31</v>
@@ -29444,7 +29444,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>198.32</v>
+        <v>9.65255</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>117.726</v>
@@ -29481,7 +29481,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>198.576</v>
+        <v>9.65489</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>117.875</v>
@@ -29518,7 +29518,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>198.564</v>
+        <v>9.65447</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>117.85</v>
@@ -29555,7 +29555,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>198.657</v>
+        <v>9.65446</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>117.756</v>
@@ -29592,7 +29592,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>199.51</v>
+        <v>9.677049999999999</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>118.036</v>
@@ -29629,7 +29629,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>199.869</v>
+        <v>9.723420000000001</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>118.571</v>
@@ -29666,7 +29666,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>199.403</v>
+        <v>9.726330000000001</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>118.728</v>
@@ -29703,7 +29703,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>199.372</v>
+        <v>9.729699999999999</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>118.622</v>
@@ -29740,7 +29740,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>199.378</v>
+        <v>9.728070000000001</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>118.541</v>
@@ -29777,7 +29777,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>199.399</v>
+        <v>9.72889</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>118.553</v>
@@ -29814,7 +29814,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>199.754</v>
+        <v>9.71841</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>118.235</v>
@@ -29851,7 +29851,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>199.391</v>
+        <v>9.697279999999999</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>117.607</v>
@@ -29888,7 +29888,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>198.577</v>
+        <v>9.67116</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>117.285</v>
@@ -29925,7 +29925,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>198.704</v>
+        <v>9.64583</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>117.16</v>
@@ -29962,7 +29962,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>198.964</v>
+        <v>9.65558</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>117.584</v>
@@ -29999,7 +29999,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>198.663</v>
+        <v>9.68995</v>
       </c>
       <c r="G69" s="5" t="n">
         <v>118.101</v>
@@ -30036,7 +30036,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>198.666</v>
+        <v>9.68943</v>
       </c>
       <c r="G70" s="5" t="n">
         <v>118.093</v>
@@ -30073,7 +30073,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>198.942</v>
+        <v>9.65653</v>
       </c>
       <c r="G71" s="5" t="n">
         <v>118.05</v>
@@ -30110,7 +30110,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>198.709</v>
+        <v>9.63654</v>
       </c>
       <c r="G72" s="5" t="n">
         <v>118.084</v>
@@ -30147,7 +30147,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>198.898</v>
+        <v>9.6332</v>
       </c>
       <c r="G73" s="5" t="n">
         <v>118.111</v>
@@ -30184,7 +30184,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>198.658</v>
+        <v>9.65077</v>
       </c>
       <c r="G74" s="5" t="n">
         <v>118.332</v>
@@ -30221,7 +30221,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>198.344</v>
+        <v>9.6289</v>
       </c>
       <c r="G75" s="5" t="n">
         <v>118.753</v>
@@ -30258,7 +30258,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>198.485</v>
+        <v>9.62439</v>
       </c>
       <c r="G76" s="5" t="n">
         <v>118.976</v>
@@ -30295,7 +30295,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>198.496</v>
+        <v>9.62473</v>
       </c>
       <c r="G77" s="5" t="n">
         <v>118.987</v>
@@ -30332,7 +30332,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>199.099</v>
+        <v>9.65188</v>
       </c>
       <c r="G78" s="5" t="n">
         <v>119.234</v>
@@ -30369,7 +30369,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>199.05</v>
+        <v>9.586679999999999</v>
       </c>
       <c r="G79" s="5" t="n">
         <v>118.27</v>
@@ -30406,7 +30406,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>199.017</v>
+        <v>9.5756</v>
       </c>
       <c r="G80" s="5" t="n">
         <v>118.074</v>
@@ -30443,7 +30443,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>199.297</v>
+        <v>9.59253</v>
       </c>
       <c r="G81" s="5" t="n">
         <v>118.405</v>
@@ -30480,7 +30480,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>199.257</v>
+        <v>9.625450000000001</v>
       </c>
       <c r="G82" s="5" t="n">
         <v>118.922</v>
@@ -30517,7 +30517,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>199.029</v>
+        <v>9.63077</v>
       </c>
       <c r="G83" s="5" t="n">
         <v>119.076</v>
@@ -30554,7 +30554,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>199.148</v>
+        <v>9.63008</v>
       </c>
       <c r="G84" s="5" t="n">
         <v>119.063</v>
@@ -30591,7 +30591,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>199.855</v>
+        <v>9.644119999999999</v>
       </c>
       <c r="G85" s="5" t="n">
         <v>119.046</v>
@@ -30628,7 +30628,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>199.348</v>
+        <v>9.65437</v>
       </c>
       <c r="G86" s="5" t="n">
         <v>119.43</v>
@@ -30665,7 +30665,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>199.487</v>
+        <v>9.63794</v>
       </c>
       <c r="G87" s="5" t="n">
         <v>119.234</v>
@@ -30702,7 +30702,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>199.678</v>
+        <v>9.64278</v>
       </c>
       <c r="G88" s="5" t="n">
         <v>119.553</v>
@@ -30739,7 +30739,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>200.083</v>
+        <v>9.65258</v>
       </c>
       <c r="G89" s="5" t="n">
         <v>119.673</v>
@@ -30776,7 +30776,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>200.12</v>
+        <v>9.656000000000001</v>
       </c>
       <c r="G90" s="5" t="n">
         <v>119.656</v>
@@ -30813,7 +30813,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>200.119</v>
+        <v>9.655889999999999</v>
       </c>
       <c r="G91" s="5" t="n">
         <v>119.65</v>
@@ -30850,7 +30850,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>200.291</v>
+        <v>9.67609</v>
       </c>
       <c r="G92" s="5" t="n">
         <v>119.814</v>
@@ -30887,7 +30887,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>200.189</v>
+        <v>9.70393</v>
       </c>
       <c r="G93" s="5" t="n">
         <v>120.02</v>
@@ -30924,7 +30924,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="5" t="n">
-        <v>199.902</v>
+        <v>9.69999</v>
       </c>
       <c r="G94" s="5" t="n">
         <v>119.831</v>
@@ -30961,7 +30961,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="5" t="n">
-        <v>200.52</v>
+        <v>9.659269999999999</v>
       </c>
       <c r="G95" s="5" t="n">
         <v>119.734</v>
@@ -30998,7 +30998,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="5" t="n">
-        <v>199.623</v>
+        <v>9.60173</v>
       </c>
       <c r="G96" s="5" t="n">
         <v>118.982</v>
@@ -31035,7 +31035,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="5" t="n">
-        <v>199.253</v>
+        <v>9.579890000000001</v>
       </c>
       <c r="G97" s="5" t="n">
         <v>118.637</v>
@@ -31072,7 +31072,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="5" t="n">
-        <v>199.253</v>
+        <v>9.579980000000001</v>
       </c>
       <c r="G98" s="5" t="n">
         <v>118.637</v>
@@ -31109,7 +31109,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="5" t="n">
-        <v>199.607</v>
+        <v>9.597619999999999</v>
       </c>
       <c r="G99" s="5" t="n">
         <v>119.067</v>
@@ -31146,7 +31146,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="5" t="n">
-        <v>199.616</v>
+        <v>9.612780000000001</v>
       </c>
       <c r="G100" s="5" t="n">
         <v>119.847</v>
@@ -31183,7 +31183,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="5" t="n">
-        <v>199.892</v>
+        <v>9.592779999999999</v>
       </c>
       <c r="G101" s="5" t="n">
         <v>119.55</v>
@@ -31220,7 +31220,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="5" t="n">
-        <v>199.936</v>
+        <v>9.554930000000001</v>
       </c>
       <c r="G102" s="5" t="n">
         <v>118.887</v>
@@ -31257,7 +31257,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="5" t="n">
-        <v>200.14</v>
+        <v>9.54016</v>
       </c>
       <c r="G103" s="5" t="n">
         <v>118.611</v>
@@ -31294,7 +31294,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="5" t="n">
-        <v>200.301</v>
+        <v>9.55669</v>
       </c>
       <c r="G104" s="5" t="n">
         <v>118.773</v>
@@ -31331,7 +31331,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="5" t="n">
-        <v>200.298</v>
+        <v>9.55705</v>
       </c>
       <c r="G105" s="5" t="n">
         <v>118.773</v>
@@ -31368,7 +31368,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="5" t="n">
-        <v>199.763</v>
+        <v>9.56976</v>
       </c>
       <c r="G106" s="5" t="n">
         <v>119.155</v>
@@ -31405,7 +31405,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="5" t="n">
-        <v>199.034</v>
+        <v>9.56958</v>
       </c>
       <c r="G107" s="5" t="n">
         <v>119.349</v>
@@ -31442,7 +31442,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="5" t="n">
-        <v>198.39</v>
+        <v>9.590310000000001</v>
       </c>
       <c r="G108" s="5" t="n">
         <v>119.488</v>
@@ -31479,7 +31479,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="5" t="n">
-        <v>198.019</v>
+        <v>9.583320000000001</v>
       </c>
       <c r="G109" s="5" t="n">
         <v>119.437</v>
@@ -31516,7 +31516,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="5" t="n">
-        <v>198.458</v>
+        <v>9.58053</v>
       </c>
       <c r="G110" s="5" t="n">
         <v>119.433</v>
@@ -31553,7 +31553,7 @@
         <v>1</v>
       </c>
       <c r="F111" s="5" t="n">
-        <v>198.743</v>
+        <v>9.59271</v>
       </c>
       <c r="G111" s="5" t="n">
         <v>119.57</v>
@@ -31590,7 +31590,7 @@
         <v>1</v>
       </c>
       <c r="F112" s="5" t="n">
-        <v>198.972</v>
+        <v>9.589180000000001</v>
       </c>
       <c r="G112" s="5" t="n">
         <v>119.516</v>
@@ -31627,7 +31627,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="5" t="n">
-        <v>202.018</v>
+        <v>9.579789999999999</v>
       </c>
       <c r="G113" s="5" t="n">
         <v>119.415</v>
@@ -31664,7 +31664,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="5" t="n">
-        <v>202.999</v>
+        <v>9.568759999999999</v>
       </c>
       <c r="G114" s="5" t="n">
         <v>119.27</v>
@@ -31701,7 +31701,7 @@
         <v>1</v>
       </c>
       <c r="F115" s="5" t="n">
-        <v>204.505</v>
+        <v>9.5413</v>
       </c>
       <c r="G115" s="5" t="n">
         <v>118.965</v>
@@ -31738,7 +31738,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="5" t="n">
-        <v>204.09</v>
+        <v>9.51131</v>
       </c>
       <c r="G116" s="5" t="n">
         <v>118.581</v>
@@ -31775,7 +31775,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="5" t="n">
-        <v>202.818</v>
+        <v>9.48427</v>
       </c>
       <c r="G117" s="5" t="n">
         <v>118.123</v>
@@ -31812,7 +31812,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="5" t="n">
-        <v>201.878</v>
+        <v>9.50442</v>
       </c>
       <c r="G118" s="5" t="n">
         <v>118.53</v>
@@ -31849,7 +31849,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="5" t="n">
-        <v>201.975</v>
+        <v>9.50346</v>
       </c>
       <c r="G119" s="5" t="n">
         <v>118.504</v>
@@ -31886,7 +31886,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="5" t="n">
-        <v>202.932</v>
+        <v>9.49329</v>
       </c>
       <c r="G120" s="5" t="n">
         <v>118.285</v>
@@ -31923,7 +31923,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="5" t="n">
-        <v>202.228</v>
+        <v>9.486409999999999</v>
       </c>
       <c r="G121" s="5" t="n">
         <v>118.124</v>
@@ -31960,7 +31960,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="5" t="n">
-        <v>202.157</v>
+        <v>9.52979</v>
       </c>
       <c r="G122" s="5" t="n">
         <v>117.813</v>
@@ -31997,7 +31997,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="5" t="n">
-        <v>202.493</v>
+        <v>9.56758</v>
       </c>
       <c r="G123" s="5" t="n">
         <v>118.032</v>
@@ -32034,7 +32034,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="5" t="n">
-        <v>201.758</v>
+        <v>9.56823</v>
       </c>
       <c r="G124" s="5" t="n">
         <v>118.134</v>
@@ -32071,7 +32071,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="5" t="n">
-        <v>202.199</v>
+        <v>9.562749999999999</v>
       </c>
       <c r="G125" s="5" t="n">
         <v>118.076</v>
@@ -32108,7 +32108,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="5" t="n">
-        <v>202.215</v>
+        <v>9.563330000000001</v>
       </c>
       <c r="G126" s="5" t="n">
         <v>118.079</v>
@@ -32145,7 +32145,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="5" t="n">
-        <v>202.244</v>
+        <v>9.557729999999999</v>
       </c>
       <c r="G127" s="5" t="n">
         <v>117.948</v>
@@ -32182,7 +32182,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="5" t="n">
-        <v>202.831</v>
+        <v>9.527240000000001</v>
       </c>
       <c r="G128" s="5" t="n">
         <v>117.727</v>
@@ -32219,7 +32219,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="5" t="n">
-        <v>202.674</v>
+        <v>9.5107</v>
       </c>
       <c r="G129" s="5" t="n">
         <v>117.149</v>
@@ -32256,7 +32256,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="5" t="n">
-        <v>203.403</v>
+        <v>9.499309999999999</v>
       </c>
       <c r="G130" s="5" t="n">
         <v>117.11</v>
@@ -32293,7 +32293,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="5" t="n">
-        <v>203.513</v>
+        <v>9.48434</v>
       </c>
       <c r="G131" s="5" t="n">
         <v>116.888</v>
@@ -32330,7 +32330,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="5" t="n">
-        <v>203.395</v>
+        <v>9.474209999999999</v>
       </c>
       <c r="G132" s="5" t="n">
         <v>116.819</v>
@@ -32367,7 +32367,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="5" t="n">
-        <v>203.446</v>
+        <v>9.475569999999999</v>
       </c>
       <c r="G133" s="5" t="n">
         <v>116.84</v>
@@ -32404,7 +32404,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="5" t="n">
-        <v>203.851</v>
+        <v>9.48143</v>
       </c>
       <c r="G134" s="5" t="n">
         <v>117.466</v>
@@ -32441,7 +32441,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="5" t="n">
-        <v>202.454</v>
+        <v>9.450950000000001</v>
       </c>
       <c r="G135" s="5" t="n">
         <v>117.448</v>
@@ -32478,7 +32478,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="5" t="n">
-        <v>201.321</v>
+        <v>9.38382</v>
       </c>
       <c r="G136" s="5" t="n">
         <v>116.652</v>
@@ -32515,7 +32515,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="5" t="n">
-        <v>202.426</v>
+        <v>9.35881</v>
       </c>
       <c r="G137" s="5" t="n">
         <v>116.69</v>
@@ -32552,7 +32552,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="5" t="n">
-        <v>202.401</v>
+        <v>9.343019999999999</v>
       </c>
       <c r="G138" s="5" t="n">
         <v>116.531</v>
@@ -32589,7 +32589,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="5" t="n">
-        <v>202.431</v>
+        <v>9.342219999999999</v>
       </c>
       <c r="G139" s="5" t="n">
         <v>116.375</v>
@@ -32626,7 +32626,7 @@
         <v>1</v>
       </c>
       <c r="F140" s="5" t="n">
-        <v>202.428</v>
+        <v>9.34193</v>
       </c>
       <c r="G140" s="5" t="n">
         <v>116.392</v>
@@ -32663,7 +32663,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="5" t="n">
-        <v>202.488</v>
+        <v>9.354469999999999</v>
       </c>
       <c r="G141" s="5" t="n">
         <v>116.574</v>
@@ -32700,7 +32700,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="5" t="n">
-        <v>200.912</v>
+        <v>9.30935</v>
       </c>
       <c r="G142" s="5" t="n">
         <v>115.919</v>
@@ -32737,7 +32737,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="5" t="n">
-        <v>200.412</v>
+        <v>9.288180000000001</v>
       </c>
       <c r="G143" s="5" t="n">
         <v>115.535</v>
@@ -32774,7 +32774,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="5" t="n">
-        <v>200.966</v>
+        <v>9.322990000000001</v>
       </c>
       <c r="G144" s="5" t="n">
         <v>116.018</v>
@@ -32811,7 +32811,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="5" t="n">
-        <v>201.31</v>
+        <v>9.350709999999999</v>
       </c>
       <c r="G145" s="5" t="n">
         <v>116.464</v>
@@ -32848,7 +32848,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="5" t="n">
-        <v>201.896</v>
+        <v>9.367979999999999</v>
       </c>
       <c r="G146" s="5" t="n">
         <v>116.623</v>
@@ -32885,7 +32885,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="5" t="n">
-        <v>201.917</v>
+        <v>9.3674</v>
       </c>
       <c r="G147" s="5" t="n">
         <v>116.613</v>
@@ -32922,7 +32922,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="5" t="n">
-        <v>202.743</v>
+        <v>9.371</v>
       </c>
       <c r="G148" s="5" t="n">
         <v>116.741</v>
@@ -32959,7 +32959,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="5" t="n">
-        <v>202.842</v>
+        <v>9.3626</v>
       </c>
       <c r="G149" s="5" t="n">
         <v>116.506</v>
@@ -32996,7 +32996,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="5" t="n">
-        <v>203.061</v>
+        <v>9.34046</v>
       </c>
       <c r="G150" s="5" t="n">
         <v>116.318</v>
@@ -33033,7 +33033,7 @@
         <v>1</v>
       </c>
       <c r="F151" s="5" t="n">
-        <v>203.44</v>
+        <v>9.345829999999999</v>
       </c>
       <c r="G151" s="5" t="n">
         <v>116.724</v>
@@ -33070,7 +33070,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="5" t="n">
-        <v>203.218</v>
+        <v>9.34178</v>
       </c>
       <c r="G152" s="5" t="n">
         <v>116.685</v>
@@ -33107,7 +33107,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="5" t="n">
-        <v>203.457</v>
+        <v>9.347569999999999</v>
       </c>
       <c r="G153" s="5" t="n">
         <v>116.74</v>
@@ -33144,7 +33144,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="5" t="n">
-        <v>203.451</v>
+        <v>9.346629999999999</v>
       </c>
       <c r="G154" s="5" t="n">
         <v>116.727</v>
@@ -33181,7 +33181,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="5" t="n">
-        <v>203.86</v>
+        <v>9.34619</v>
       </c>
       <c r="G155" s="5" t="n">
         <v>116.638</v>
@@ -33218,7 +33218,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="5" t="n">
-        <v>204.225</v>
+        <v>9.34543</v>
       </c>
       <c r="G156" s="5" t="n">
         <v>116.485</v>
@@ -33255,7 +33255,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="5" t="n">
-        <v>204.632</v>
+        <v>9.315659999999999</v>
       </c>
       <c r="G157" s="5" t="n">
         <v>115.992</v>
@@ -33292,7 +33292,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="5" t="n">
-        <v>205.766</v>
+        <v>9.290279999999999</v>
       </c>
       <c r="G158" s="5" t="n">
         <v>115.877</v>
@@ -33329,7 +33329,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="5" t="n">
-        <v>205.199</v>
+        <v>9.298349999999999</v>
       </c>
       <c r="G159" s="5" t="n">
         <v>116.772</v>
@@ -33366,7 +33366,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="5" t="n">
-        <v>204.705</v>
+        <v>9.301920000000001</v>
       </c>
       <c r="G160" s="5" t="n">
         <v>117.327</v>
@@ -33403,7 +33403,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="5" t="n">
-        <v>204.73</v>
+        <v>9.301830000000001</v>
       </c>
       <c r="G161" s="5" t="n">
         <v>117.319</v>
@@ -33440,7 +33440,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="5" t="n">
-        <v>205.383</v>
+        <v>9.3049</v>
       </c>
       <c r="G162" s="5" t="n">
         <v>116.858</v>
@@ -33477,7 +33477,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="5" t="n">
-        <v>205.473</v>
+        <v>9.32044</v>
       </c>
       <c r="G163" s="5" t="n">
         <v>117.167</v>
@@ -33514,7 +33514,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="5" t="n">
-        <v>206.333</v>
+        <v>9.34426</v>
       </c>
       <c r="G164" s="5" t="n">
         <v>117.741</v>
@@ -33551,7 +33551,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="5" t="n">
-        <v>206.83</v>
+        <v>9.37031</v>
       </c>
       <c r="G165" s="5" t="n">
         <v>118.229</v>
@@ -33588,7 +33588,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="5" t="n">
-        <v>206.649</v>
+        <v>9.35825</v>
       </c>
       <c r="G166" s="5" t="n">
         <v>118.25</v>
@@ -33625,7 +33625,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="5" t="n">
-        <v>206.54</v>
+        <v>9.354660000000001</v>
       </c>
       <c r="G167" s="5" t="n">
         <v>118.167</v>
@@ -33662,7 +33662,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="5" t="n">
-        <v>206.538</v>
+        <v>9.355130000000001</v>
       </c>
       <c r="G168" s="5" t="n">
         <v>118.163</v>
@@ -33699,7 +33699,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="5" t="n">
-        <v>205.529</v>
+        <v>9.356059999999999</v>
       </c>
       <c r="G169" s="5" t="n">
         <v>118.447</v>
@@ -33736,7 +33736,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="5" t="n">
-        <v>205.814</v>
+        <v>9.33858</v>
       </c>
       <c r="G170" s="5" t="n">
         <v>118.663</v>
@@ -33773,7 +33773,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="5" t="n">
-        <v>206.556</v>
+        <v>9.39049</v>
       </c>
       <c r="G171" s="5" t="n">
         <v>119.763</v>
@@ -33810,7 +33810,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="5" t="n">
-        <v>206.825</v>
+        <v>9.429500000000001</v>
       </c>
       <c r="G172" s="5" t="n">
         <v>120.049</v>
@@ -33847,7 +33847,7 @@
         <v>1</v>
       </c>
       <c r="F173" s="5" t="n">
-        <v>206.839</v>
+        <v>9.42971</v>
       </c>
       <c r="G173" s="5" t="n">
         <v>119.93</v>
@@ -33884,7 +33884,7 @@
         <v>1</v>
       </c>
       <c r="F174" s="5" t="n">
-        <v>206.943</v>
+        <v>9.42259</v>
       </c>
       <c r="G174" s="5" t="n">
         <v>119.792</v>
@@ -33921,7 +33921,7 @@
         <v>1</v>
       </c>
       <c r="F175" s="5" t="n">
-        <v>206.935</v>
+        <v>9.4222</v>
       </c>
       <c r="G175" s="5" t="n">
         <v>119.788</v>
@@ -33958,7 +33958,7 @@
         <v>1</v>
       </c>
       <c r="F176" s="5" t="n">
-        <v>207.229</v>
+        <v>9.42098</v>
       </c>
       <c r="G176" s="5" t="n">
         <v>120.041</v>
@@ -33995,7 +33995,7 @@
         <v>1</v>
       </c>
       <c r="F177" s="5" t="n">
-        <v>208.262</v>
+        <v>9.41306</v>
       </c>
       <c r="G177" s="5" t="n">
         <v>119.763</v>
@@ -34032,7 +34032,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="5" t="n">
-        <v>208.568</v>
+        <v>9.41351</v>
       </c>
       <c r="G178" s="5" t="n">
         <v>119.795</v>
@@ -34069,7 +34069,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="5" t="n">
-        <v>208.333</v>
+        <v>9.453250000000001</v>
       </c>
       <c r="G179" s="5" t="n">
         <v>120.752</v>
@@ -34106,7 +34106,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="5" t="n">
-        <v>208.411</v>
+        <v>9.43905</v>
       </c>
       <c r="G180" s="5" t="n">
         <v>120.993</v>
@@ -34143,7 +34143,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="5" t="n">
-        <v>208.291</v>
+        <v>9.43083</v>
       </c>
       <c r="G181" s="5" t="n">
         <v>121.03</v>
@@ -34180,7 +34180,7 @@
         <v>1</v>
       </c>
       <c r="F182" s="5" t="n">
-        <v>208.291</v>
+        <v>9.430720000000001</v>
       </c>
       <c r="G182" s="5" t="n">
         <v>121.023</v>
@@ -34217,7 +34217,7 @@
         <v>1</v>
       </c>
       <c r="F183" s="5" t="n">
-        <v>207.59</v>
+        <v>9.428190000000001</v>
       </c>
       <c r="G183" s="5" t="n">
         <v>121.257</v>
@@ -34254,7 +34254,7 @@
         <v>1</v>
       </c>
       <c r="F184" s="5" t="n">
-        <v>207.457</v>
+        <v>9.440799999999999</v>
       </c>
       <c r="G184" s="5" t="n">
         <v>121.829</v>
@@ -34291,7 +34291,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="5" t="n">
-        <v>207.769</v>
+        <v>9.41877</v>
       </c>
       <c r="G185" s="5" t="n">
         <v>120.981</v>
